--- a/Musteri Listesi Raporu.xlsx
+++ b/Musteri Listesi Raporu.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13274" uniqueCount="4411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13268" uniqueCount="4411">
   <si>
     <t>Müşteri Kodu</t>
   </si>
@@ -13347,7 +13347,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -21022,10 +21033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1366"/>
+  <dimension ref="A1:P1365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P1366"/>
+    <sheetView tabSelected="1" topLeftCell="A1337" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P1365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -80092,19 +80103,19 @@
     </row>
     <row r="1188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1188" s="6" t="s">
-        <v>1496</v>
+        <v>4053</v>
       </c>
       <c r="B1188" s="6" t="s">
-        <v>1497</v>
+        <v>4054</v>
       </c>
       <c r="C1188" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1188" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1188" s="6" t="e">
-        <v>#N/A</v>
+      <c r="D1188" s="6">
+        <v>41.360088300000001</v>
+      </c>
+      <c r="E1188" s="6">
+        <v>36.2333517</v>
       </c>
       <c r="G1188" s="7" t="s">
         <v>1031</v>
@@ -80115,17 +80126,17 @@
       <c r="I1188" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="J1188" t="e">
+      <c r="J1188" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K1188" t="e">
+        <v>KÖRFEZ MAH. TOPLU KONUT BUL. TELLİOĞLU APT. NO:1A 364121531 ATAKUM SAMSUN</v>
+      </c>
+      <c r="K1188" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L1188" t="e">
+        <v>SAMSUN</v>
+      </c>
+      <c r="L1188" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>#N/A</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1188" s="3">
         <v>1</v>
@@ -80142,19 +80153,19 @@
     </row>
     <row r="1189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1189" s="6" t="s">
-        <v>4053</v>
+        <v>4055</v>
       </c>
       <c r="B1189" s="6" t="s">
-        <v>4054</v>
+        <v>4056</v>
       </c>
       <c r="C1189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1189" s="6">
-        <v>41.360088300000001</v>
+        <v>41.355525</v>
       </c>
       <c r="E1189" s="6">
-        <v>36.2333517</v>
+        <v>36.210954999999998</v>
       </c>
       <c r="G1189" s="7" t="s">
         <v>1031</v>
@@ -80167,7 +80178,7 @@
       </c>
       <c r="J1189" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KÖRFEZ MAH. TOPLU KONUT BUL. TELLİOĞLU APT. NO:1A 364121531 ATAKUM SAMSUN</v>
+        <v>BÜYÜKOYUMCA MAH. TOPLU KONUT BULV. NO:156 A ADRES KODU:1412887638 ATAKUM SAMSUN</v>
       </c>
       <c r="K1189" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80192,19 +80203,19 @@
     </row>
     <row r="1190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1190" s="6" t="s">
-        <v>4055</v>
+        <v>4057</v>
       </c>
       <c r="B1190" s="6" t="s">
-        <v>4056</v>
+        <v>4058</v>
       </c>
       <c r="C1190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1190" s="6">
-        <v>41.355525</v>
+        <v>41.574315499999997</v>
       </c>
       <c r="E1190" s="6">
-        <v>36.210954999999998</v>
+        <v>35.917782099999997</v>
       </c>
       <c r="G1190" s="7" t="s">
         <v>1031</v>
@@ -80217,7 +80228,7 @@
       </c>
       <c r="J1190" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BÜYÜKOYUMCA MAH. TOPLU KONUT BULV. NO:156 A ADRES KODU:1412887638 ATAKUM SAMSUN</v>
+        <v>KEMAL PAŞA MAH. ŞEHİT MAHMUT ÖZCAN CAD. NO:4/B BAFRA SAMSUN</v>
       </c>
       <c r="K1190" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80225,7 +80236,7 @@
       </c>
       <c r="L1190" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>BAFRA</v>
       </c>
       <c r="M1190" s="3">
         <v>1</v>
@@ -80242,19 +80253,19 @@
     </row>
     <row r="1191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1191" s="6" t="s">
-        <v>4057</v>
+        <v>4059</v>
       </c>
       <c r="B1191" s="6" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="C1191" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1191" s="6">
-        <v>41.574315499999997</v>
+        <v>41.557060200000002</v>
       </c>
       <c r="E1191" s="6">
-        <v>35.917782099999997</v>
+        <v>35.918342299999999</v>
       </c>
       <c r="G1191" s="7" t="s">
         <v>1031</v>
@@ -80267,7 +80278,7 @@
       </c>
       <c r="J1191" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KEMAL PAŞA MAH. ŞEHİT MAHMUT ÖZCAN CAD. NO:4/B BAFRA SAMSUN</v>
+        <v>ALTINYAPRAK MAH. ÇİCEKLİ 4. SOK. NO:73/A-B BAFRA SAMSUN</v>
       </c>
       <c r="K1191" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80292,19 +80303,19 @@
     </row>
     <row r="1192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1192" s="6" t="s">
-        <v>4059</v>
+        <v>4061</v>
       </c>
       <c r="B1192" s="6" t="s">
-        <v>4060</v>
+        <v>4062</v>
       </c>
       <c r="C1192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1192" s="6">
-        <v>41.557060200000002</v>
+        <v>41.366027199999998</v>
       </c>
       <c r="E1192" s="6">
-        <v>35.918342299999999</v>
+        <v>36.222201599999998</v>
       </c>
       <c r="G1192" s="7" t="s">
         <v>1031</v>
@@ -80317,7 +80328,7 @@
       </c>
       <c r="J1192" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALTINYAPRAK MAH. ÇİCEKLİ 4. SOK. NO:73/A-B BAFRA SAMSUN</v>
+        <v>KÖRFEZ MAH. AZİZ IŞIK BULVARI NO:33 A-B ATAKUM SAMSUN</v>
       </c>
       <c r="K1192" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80325,7 +80336,7 @@
       </c>
       <c r="L1192" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>BAFRA</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1192" s="3">
         <v>1</v>
@@ -80342,19 +80353,19 @@
     </row>
     <row r="1193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1193" s="6" t="s">
-        <v>4061</v>
+        <v>4063</v>
       </c>
       <c r="B1193" s="6" t="s">
-        <v>4062</v>
+        <v>4064</v>
       </c>
       <c r="C1193" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1193" s="6">
-        <v>41.366027199999998</v>
+        <v>41.565559999999998</v>
       </c>
       <c r="E1193" s="6">
-        <v>36.222201599999998</v>
+        <v>35.9056231</v>
       </c>
       <c r="G1193" s="7" t="s">
         <v>1031</v>
@@ -80367,7 +80378,7 @@
       </c>
       <c r="J1193" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KÖRFEZ MAH. AZİZ IŞIK BULVARI NO:33 A-B ATAKUM SAMSUN</v>
+        <v>TABAKHANE MAH. EMİREFENDİ BULV. NO:28 A-B BAFRA SAMSUN</v>
       </c>
       <c r="K1193" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80375,7 +80386,7 @@
       </c>
       <c r="L1193" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>BAFRA</v>
       </c>
       <c r="M1193" s="3">
         <v>1</v>
@@ -80392,19 +80403,19 @@
     </row>
     <row r="1194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1194" s="6" t="s">
-        <v>4063</v>
+        <v>4065</v>
       </c>
       <c r="B1194" s="6" t="s">
-        <v>4064</v>
+        <v>4066</v>
       </c>
       <c r="C1194" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1194" s="6">
-        <v>41.565559999999998</v>
+        <v>41.563432800000001</v>
       </c>
       <c r="E1194" s="6">
-        <v>35.9056231</v>
+        <v>35.915804000000001</v>
       </c>
       <c r="G1194" s="7" t="s">
         <v>1031</v>
@@ -80417,7 +80428,7 @@
       </c>
       <c r="J1194" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>TABAKHANE MAH. EMİREFENDİ BULV. NO:28 A-B BAFRA SAMSUN</v>
+        <v>ALTINYAPRAK MAH. SİRUNİ SOK NO:1/3 BAFRA SAMSUN</v>
       </c>
       <c r="K1194" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80442,19 +80453,19 @@
     </row>
     <row r="1195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1195" s="6" t="s">
-        <v>4065</v>
+        <v>4067</v>
       </c>
       <c r="B1195" s="6" t="s">
-        <v>4066</v>
+        <v>4068</v>
       </c>
       <c r="C1195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1195" s="6">
-        <v>41.563432800000001</v>
+        <v>41.558021699999998</v>
       </c>
       <c r="E1195" s="6">
-        <v>35.915804000000001</v>
+        <v>35.899589400000004</v>
       </c>
       <c r="G1195" s="7" t="s">
         <v>1031</v>
@@ -80467,7 +80478,7 @@
       </c>
       <c r="J1195" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALTINYAPRAK MAH. SİRUNİ SOK NO:1/3 BAFRA SAMSUN</v>
+        <v>ALPARSLAN MAH. CAD. NO:52/ B BAFRA SAMSUN</v>
       </c>
       <c r="K1195" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80492,19 +80503,19 @@
     </row>
     <row r="1196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1196" s="6" t="s">
-        <v>4067</v>
+        <v>4069</v>
       </c>
       <c r="B1196" s="6" t="s">
-        <v>4068</v>
+        <v>4070</v>
       </c>
       <c r="C1196" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1196" s="6">
-        <v>41.558021699999998</v>
+        <v>41.568542100000002</v>
       </c>
       <c r="E1196" s="6">
-        <v>35.899589400000004</v>
+        <v>35.899000800000003</v>
       </c>
       <c r="G1196" s="7" t="s">
         <v>1031</v>
@@ -80517,7 +80528,7 @@
       </c>
       <c r="J1196" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALPARSLAN MAH. CAD. NO:52/ B BAFRA SAMSUN</v>
+        <v>CİLHANE MH. YENİ 3 SK. NO:15 BAFRA SAMSUN</v>
       </c>
       <c r="K1196" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80542,19 +80553,19 @@
     </row>
     <row r="1197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1197" s="6" t="s">
-        <v>4069</v>
+        <v>4071</v>
       </c>
       <c r="B1197" s="6" t="s">
-        <v>4070</v>
+        <v>4072</v>
       </c>
       <c r="C1197" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1197" s="6">
-        <v>41.568542100000002</v>
+        <v>41.363041699999997</v>
       </c>
       <c r="E1197" s="6">
-        <v>35.899000800000003</v>
+        <v>36.230211699999998</v>
       </c>
       <c r="G1197" s="7" t="s">
         <v>1031</v>
@@ -80567,7 +80578,7 @@
       </c>
       <c r="J1197" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CİLHANE MH. YENİ 3 SK. NO:15 BAFRA SAMSUN</v>
+        <v>KÖRFEZ MAH. ÇİLİNGİROĞLU CAD. NO:41A ASARCIK SAMSUN</v>
       </c>
       <c r="K1197" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80575,7 +80586,7 @@
       </c>
       <c r="L1197" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>BAFRA</v>
+        <v>ASARCIK</v>
       </c>
       <c r="M1197" s="3">
         <v>1</v>
@@ -80592,19 +80603,19 @@
     </row>
     <row r="1198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1198" s="6" t="s">
-        <v>4071</v>
+        <v>4073</v>
       </c>
       <c r="B1198" s="6" t="s">
-        <v>4072</v>
+        <v>4074</v>
       </c>
       <c r="C1198" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1198" s="6">
-        <v>41.363041699999997</v>
+        <v>41.565320300000003</v>
       </c>
       <c r="E1198" s="6">
-        <v>36.230211699999998</v>
+        <v>35.898958299999997</v>
       </c>
       <c r="G1198" s="7" t="s">
         <v>1031</v>
@@ -80617,7 +80628,7 @@
       </c>
       <c r="J1198" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KÖRFEZ MAH. ÇİLİNGİROĞLU CAD. NO:41A ASARCIK SAMSUN</v>
+        <v>KIZILIRMAK MAH. YAVUZ SULTAN SELİM 1 SOK. NO:1/D BAFRA SAMSUN</v>
       </c>
       <c r="K1198" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80625,7 +80636,7 @@
       </c>
       <c r="L1198" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ASARCIK</v>
+        <v>BAFRA</v>
       </c>
       <c r="M1198" s="3">
         <v>1</v>
@@ -80642,19 +80653,19 @@
     </row>
     <row r="1199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1199" s="6" t="s">
-        <v>4073</v>
+        <v>4075</v>
       </c>
       <c r="B1199" s="6" t="s">
-        <v>4074</v>
+        <v>4076</v>
       </c>
       <c r="C1199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1199" s="6">
-        <v>41.565320300000003</v>
+        <v>41.550338699999998</v>
       </c>
       <c r="E1199" s="6">
-        <v>35.898958299999997</v>
+        <v>35.925618100000001</v>
       </c>
       <c r="G1199" s="7" t="s">
         <v>1031</v>
@@ -80667,7 +80678,7 @@
       </c>
       <c r="J1199" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KIZILIRMAK MAH. YAVUZ SULTAN SELİM 1 SOK. NO:1/D BAFRA SAMSUN</v>
+        <v>FEVZİ ÇAKMAK MH. SAMSUN CD. NO:266/2  BAFRA SAMSUN</v>
       </c>
       <c r="K1199" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80692,19 +80703,19 @@
     </row>
     <row r="1200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1200" s="6" t="s">
-        <v>4075</v>
+        <v>4077</v>
       </c>
       <c r="B1200" s="6" t="s">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="C1200" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1200" s="6">
-        <v>41.550338699999998</v>
+        <v>41.565438700000001</v>
       </c>
       <c r="E1200" s="6">
-        <v>35.925618100000001</v>
+        <v>35.9232078</v>
       </c>
       <c r="G1200" s="7" t="s">
         <v>1031</v>
@@ -80717,7 +80728,7 @@
       </c>
       <c r="J1200" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>FEVZİ ÇAKMAK MH. SAMSUN CD. NO:266/2  BAFRA SAMSUN</v>
+        <v>MEVLANA MAH TEPE SOK. NO:48/A BAFRA SAMSUN</v>
       </c>
       <c r="K1200" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80742,19 +80753,19 @@
     </row>
     <row r="1201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1201" s="6" t="s">
-        <v>4077</v>
+        <v>4079</v>
       </c>
       <c r="B1201" s="6" t="s">
-        <v>4078</v>
+        <v>4080</v>
       </c>
       <c r="C1201" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1201" s="6">
-        <v>41.565438700000001</v>
+        <v>41.370785499999997</v>
       </c>
       <c r="E1201" s="6">
-        <v>35.9232078</v>
+        <v>36.228225700000003</v>
       </c>
       <c r="G1201" s="7" t="s">
         <v>1031</v>
@@ -80767,7 +80778,7 @@
       </c>
       <c r="J1201" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MEVLANA MAH TEPE SOK. NO:48/A BAFRA SAMSUN</v>
+        <v>KÖRFEZ MAH ATATÜRK 5. KISIM BULVARI NO:144A ATAKUM SAMSUN</v>
       </c>
       <c r="K1201" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80775,7 +80786,7 @@
       </c>
       <c r="L1201" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>BAFRA</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1201" s="3">
         <v>1</v>
@@ -80792,19 +80803,19 @@
     </row>
     <row r="1202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1202" s="6" t="s">
-        <v>4079</v>
+        <v>4081</v>
       </c>
       <c r="B1202" s="6" t="s">
-        <v>4080</v>
+        <v>4082</v>
       </c>
       <c r="C1202" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1202" s="6">
-        <v>41.370785499999997</v>
+        <v>41.560471900000003</v>
       </c>
       <c r="E1202" s="6">
-        <v>36.228225700000003</v>
+        <v>35.899734700000003</v>
       </c>
       <c r="G1202" s="7" t="s">
         <v>1031</v>
@@ -80817,7 +80828,7 @@
       </c>
       <c r="J1202" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KÖRFEZ MAH ATATÜRK 5. KISIM BULVARI NO:144A ATAKUM SAMSUN</v>
+        <v>KAVAKPINAR MAH SÜLEYMAN TÜRK CAD. NO:48 BAFRA SAMSUN</v>
       </c>
       <c r="K1202" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80825,7 +80836,7 @@
       </c>
       <c r="L1202" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>BAFRA</v>
       </c>
       <c r="M1202" s="3">
         <v>1</v>
@@ -80842,19 +80853,19 @@
     </row>
     <row r="1203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1203" s="6" t="s">
-        <v>4081</v>
+        <v>4083</v>
       </c>
       <c r="B1203" s="6" t="s">
-        <v>4082</v>
+        <v>4084</v>
       </c>
       <c r="C1203" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1203" s="6">
-        <v>41.560471900000003</v>
+        <v>41.565807499999998</v>
       </c>
       <c r="E1203" s="6">
-        <v>35.899734700000003</v>
+        <v>35.910021800000003</v>
       </c>
       <c r="G1203" s="7" t="s">
         <v>1031</v>
@@ -80867,7 +80878,7 @@
       </c>
       <c r="J1203" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KAVAKPINAR MAH SÜLEYMAN TÜRK CAD. NO:48 BAFRA SAMSUN</v>
+        <v>İSMETPAŞA MAH İSMETPAŞA CAD. NO:5/7B BAFRA SAMSUN</v>
       </c>
       <c r="K1203" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80892,19 +80903,19 @@
     </row>
     <row r="1204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1204" s="6" t="s">
-        <v>4083</v>
+        <v>4085</v>
       </c>
       <c r="B1204" s="6" t="s">
-        <v>4084</v>
+        <v>4086</v>
       </c>
       <c r="C1204" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1204" s="6">
-        <v>41.565807499999998</v>
+        <v>41.571387999999999</v>
       </c>
       <c r="E1204" s="6">
-        <v>35.910021800000003</v>
+        <v>35.908552</v>
       </c>
       <c r="G1204" s="7" t="s">
         <v>1031</v>
@@ -80917,7 +80928,7 @@
       </c>
       <c r="J1204" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>İSMETPAŞA MAH İSMETPAŞA CAD. NO:5/7B BAFRA SAMSUN</v>
+        <v>GAZİPAŞA MAH LİSE CAD. NO:13A BAFRA SAMSUN</v>
       </c>
       <c r="K1204" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80942,19 +80953,19 @@
     </row>
     <row r="1205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1205" s="6" t="s">
-        <v>4085</v>
+        <v>4087</v>
       </c>
       <c r="B1205" s="6" t="s">
-        <v>4086</v>
+        <v>4088</v>
       </c>
       <c r="C1205" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1205" s="6">
-        <v>41.571387999999999</v>
+        <v>41.349548300000002</v>
       </c>
       <c r="E1205" s="6">
-        <v>35.908552</v>
+        <v>36.2473083</v>
       </c>
       <c r="G1205" s="7" t="s">
         <v>1031</v>
@@ -80967,7 +80978,7 @@
       </c>
       <c r="J1205" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GAZİPAŞA MAH LİSE CAD. NO:13A BAFRA SAMSUN</v>
+        <v>GÜZELYALI MAH ADNAN MENDERES 2. KISIM BULVARI NO:97/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1205" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -80975,7 +80986,7 @@
       </c>
       <c r="L1205" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>BAFRA</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1205" s="3">
         <v>1</v>
@@ -80992,19 +81003,19 @@
     </row>
     <row r="1206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1206" s="6" t="s">
-        <v>4087</v>
+        <v>4089</v>
       </c>
       <c r="B1206" s="6" t="s">
-        <v>4088</v>
+        <v>4090</v>
       </c>
       <c r="C1206" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1206" s="6">
-        <v>41.349548300000002</v>
+        <v>41.5723099</v>
       </c>
       <c r="E1206" s="6">
-        <v>36.2473083</v>
+        <v>35.918588999999997</v>
       </c>
       <c r="G1206" s="7" t="s">
         <v>1031</v>
@@ -81017,7 +81028,7 @@
       </c>
       <c r="J1206" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GÜZELYALI MAH ADNAN MENDERES 2. KISIM BULVARI NO:97/A ATAKUM SAMSUN</v>
+        <v>KEMALPAŞA MAH BAKIRPINAR SOK. NO:75A BAFRA SAMSUN</v>
       </c>
       <c r="K1206" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81025,7 +81036,7 @@
       </c>
       <c r="L1206" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>BAFRA</v>
       </c>
       <c r="M1206" s="3">
         <v>1</v>
@@ -81042,19 +81053,19 @@
     </row>
     <row r="1207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1207" s="6" t="s">
-        <v>4089</v>
+        <v>4091</v>
       </c>
       <c r="B1207" s="6" t="s">
-        <v>4090</v>
+        <v>4092</v>
       </c>
       <c r="C1207" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1207" s="6">
-        <v>41.5723099</v>
+        <v>41.554116399999998</v>
       </c>
       <c r="E1207" s="6">
-        <v>35.918588999999997</v>
+        <v>35.8872274</v>
       </c>
       <c r="G1207" s="7" t="s">
         <v>1031</v>
@@ -81067,7 +81078,7 @@
       </c>
       <c r="J1207" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KEMALPAŞA MAH BAKIRPINAR SOK. NO:75A BAFRA SAMSUN</v>
+        <v>BAHÇELER MAH ELÇİBEY CAD. NO:144 BAFRA SAMSUN</v>
       </c>
       <c r="K1207" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81092,19 +81103,19 @@
     </row>
     <row r="1208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1208" s="6" t="s">
-        <v>4091</v>
+        <v>4093</v>
       </c>
       <c r="B1208" s="6" t="s">
-        <v>4092</v>
+        <v>4094</v>
       </c>
       <c r="C1208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1208" s="6">
-        <v>41.554116399999998</v>
+        <v>41.408369499999999</v>
       </c>
       <c r="E1208" s="6">
-        <v>35.8872274</v>
+        <v>36.177578500000003</v>
       </c>
       <c r="G1208" s="7" t="s">
         <v>1031</v>
@@ -81117,7 +81128,7 @@
       </c>
       <c r="J1208" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BAHÇELER MAH ELÇİBEY CAD. NO:144 BAFRA SAMSUN</v>
+        <v>ÇAKIRLAR MAH ATATÜRK 6.KISIM BULV. NO:395/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1208" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81125,7 +81136,7 @@
       </c>
       <c r="L1208" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>BAFRA</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1208" s="3">
         <v>1</v>
@@ -81142,19 +81153,19 @@
     </row>
     <row r="1209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1209" s="6" t="s">
-        <v>4093</v>
+        <v>4095</v>
       </c>
       <c r="B1209" s="6" t="s">
-        <v>4094</v>
+        <v>4096</v>
       </c>
       <c r="C1209" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1209" s="6">
-        <v>41.408369499999999</v>
+        <v>41.419705700000002</v>
       </c>
       <c r="E1209" s="6">
-        <v>36.177578500000003</v>
+        <v>36.1675878</v>
       </c>
       <c r="G1209" s="7" t="s">
         <v>1031</v>
@@ -81167,7 +81178,7 @@
       </c>
       <c r="J1209" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇAKIRLAR MAH ATATÜRK 6.KISIM BULV. NO:395/A ATAKUM SAMSUN</v>
+        <v>GÜZELYURT MAH ATATÜRK 7.KISIM BULV. NO:62 ATAKUM SAMSUN</v>
       </c>
       <c r="K1209" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81192,19 +81203,19 @@
     </row>
     <row r="1210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1210" s="6" t="s">
-        <v>4095</v>
+        <v>4097</v>
       </c>
       <c r="B1210" s="6" t="s">
-        <v>4096</v>
+        <v>4098</v>
       </c>
       <c r="C1210" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1210" s="6">
-        <v>41.419705700000002</v>
+        <v>41.5603379</v>
       </c>
       <c r="E1210" s="6">
-        <v>36.1675878</v>
+        <v>35.925741500000001</v>
       </c>
       <c r="G1210" s="7" t="s">
         <v>1031</v>
@@ -81217,7 +81228,7 @@
       </c>
       <c r="J1210" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GÜZELYURT MAH ATATÜRK 7.KISIM BULV. NO:62 ATAKUM SAMSUN</v>
+        <v>İSHAKLI MAH GÖKTUĞ SOKAK NO:2/A BAFRA SAMSUN</v>
       </c>
       <c r="K1210" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81225,7 +81236,7 @@
       </c>
       <c r="L1210" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>BAFRA</v>
       </c>
       <c r="M1210" s="3">
         <v>1</v>
@@ -81242,19 +81253,19 @@
     </row>
     <row r="1211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1211" s="6" t="s">
-        <v>4097</v>
+        <v>4099</v>
       </c>
       <c r="B1211" s="6" t="s">
-        <v>4098</v>
+        <v>4100</v>
       </c>
       <c r="C1211" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1211" s="6">
-        <v>41.5603379</v>
+        <v>41.554780000000001</v>
       </c>
       <c r="E1211" s="6">
-        <v>35.925741500000001</v>
+        <v>35.90943</v>
       </c>
       <c r="G1211" s="7" t="s">
         <v>1031</v>
@@ -81267,7 +81278,7 @@
       </c>
       <c r="J1211" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>İSHAKLI MAH GÖKTUĞ SOKAK NO:2/A BAFRA SAMSUN</v>
+        <v>FEVZİ ÇAKMAK MAH MERCAN SOK. NO:17A BAFRA SAMSUN</v>
       </c>
       <c r="K1211" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81292,19 +81303,19 @@
     </row>
     <row r="1212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1212" s="6" t="s">
-        <v>4099</v>
+        <v>4101</v>
       </c>
       <c r="B1212" s="6" t="s">
-        <v>4100</v>
+        <v>4102</v>
       </c>
       <c r="C1212" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1212" s="6">
-        <v>41.554780000000001</v>
+        <v>42.0239555</v>
       </c>
       <c r="E1212" s="6">
-        <v>35.90943</v>
+        <v>35.153975199999998</v>
       </c>
       <c r="G1212" s="7" t="s">
         <v>1031</v>
@@ -81317,15 +81328,15 @@
       </c>
       <c r="J1212" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>FEVZİ ÇAKMAK MAH MERCAN SOK. NO:17A BAFRA SAMSUN</v>
+        <v>YENİ MAH DR. AHMET ÖRS CAD. NO:17 MERKEZ SINOP</v>
       </c>
       <c r="K1212" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>SINOP</v>
       </c>
       <c r="L1212" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>BAFRA</v>
+        <v>MERKEZ</v>
       </c>
       <c r="M1212" s="3">
         <v>1</v>
@@ -81342,19 +81353,19 @@
     </row>
     <row r="1213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1213" s="6" t="s">
-        <v>4101</v>
+        <v>4103</v>
       </c>
       <c r="B1213" s="6" t="s">
-        <v>4102</v>
+        <v>4104</v>
       </c>
       <c r="C1213" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1213" s="6">
-        <v>42.0239555</v>
+        <v>41.632362399999998</v>
       </c>
       <c r="E1213" s="6">
-        <v>35.153975199999998</v>
+        <v>35.529905100000001</v>
       </c>
       <c r="G1213" s="7" t="s">
         <v>1031</v>
@@ -81367,15 +81378,15 @@
       </c>
       <c r="J1213" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MAH DR. AHMET ÖRS CAD. NO:17 MERKEZ SINOP</v>
+        <v>MERKEZ MAH PAZAR CAD. NO:2/A YAKAKENT SAMSUN</v>
       </c>
       <c r="K1213" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SINOP</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1213" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>MERKEZ</v>
+        <v>YAKAKENT</v>
       </c>
       <c r="M1213" s="3">
         <v>1</v>
@@ -81392,19 +81403,19 @@
     </row>
     <row r="1214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1214" s="6" t="s">
-        <v>4103</v>
+        <v>4105</v>
       </c>
       <c r="B1214" s="6" t="s">
-        <v>4104</v>
+        <v>4106</v>
       </c>
       <c r="C1214" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1214" s="6">
-        <v>41.632362399999998</v>
+        <v>41.801630500000002</v>
       </c>
       <c r="E1214" s="6">
-        <v>35.529905100000001</v>
+        <v>35.195604699999997</v>
       </c>
       <c r="G1214" s="7" t="s">
         <v>1031</v>
@@ -81417,15 +81428,15 @@
       </c>
       <c r="J1214" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MERKEZ MAH PAZAR CAD. NO:2/A YAKAKENT SAMSUN</v>
+        <v>ÇARŞI MAH ZİNCİRKUYU CAD. NO:15 GERZE SINOP</v>
       </c>
       <c r="K1214" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>SINOP</v>
       </c>
       <c r="L1214" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>YAKAKENT</v>
+        <v>GERZE</v>
       </c>
       <c r="M1214" s="3">
         <v>1</v>
@@ -81442,19 +81453,19 @@
     </row>
     <row r="1215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1215" s="6" t="s">
-        <v>4105</v>
+        <v>4107</v>
       </c>
       <c r="B1215" s="6" t="s">
-        <v>4106</v>
+        <v>4108</v>
       </c>
       <c r="C1215" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1215" s="6">
-        <v>41.801630500000002</v>
+        <v>41.881495000000001</v>
       </c>
       <c r="E1215" s="6">
-        <v>35.195604699999997</v>
+        <v>34.906509999999997</v>
       </c>
       <c r="G1215" s="7" t="s">
         <v>1031</v>
@@ -81467,7 +81478,7 @@
       </c>
       <c r="J1215" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇARŞI MAH ZİNCİRKUYU CAD. NO:15 GERZE SINOP</v>
+        <v>MERKEZ MAH. ESAT TÜRKMEN CAD. NO:21 ERFELEK SINOP</v>
       </c>
       <c r="K1215" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81475,7 +81486,7 @@
       </c>
       <c r="L1215" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>GERZE</v>
+        <v>ERFELEK</v>
       </c>
       <c r="M1215" s="3">
         <v>1</v>
@@ -81492,19 +81503,19 @@
     </row>
     <row r="1216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1216" s="6" t="s">
-        <v>4107</v>
+        <v>4109</v>
       </c>
       <c r="B1216" s="6" t="s">
-        <v>4108</v>
+        <v>4110</v>
       </c>
       <c r="C1216" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1216" s="6">
-        <v>41.881495000000001</v>
+        <v>42.0249582</v>
       </c>
       <c r="E1216" s="6">
-        <v>34.906509999999997</v>
+        <v>35.160789100000002</v>
       </c>
       <c r="G1216" s="7" t="s">
         <v>1031</v>
@@ -81517,7 +81528,7 @@
       </c>
       <c r="J1216" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MERKEZ MAH. ESAT TÜRKMEN CAD. NO:21 ERFELEK SINOP</v>
+        <v>ADA MAH ATMACA SOK. NO:4/A MERKEZ SINOP</v>
       </c>
       <c r="K1216" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81525,7 +81536,7 @@
       </c>
       <c r="L1216" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ERFELEK</v>
+        <v>MERKEZ</v>
       </c>
       <c r="M1216" s="3">
         <v>1</v>
@@ -81542,19 +81553,19 @@
     </row>
     <row r="1217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1217" s="6" t="s">
-        <v>4109</v>
+        <v>4111</v>
       </c>
       <c r="B1217" s="6" t="s">
-        <v>4110</v>
+        <v>4112</v>
       </c>
       <c r="C1217" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1217" s="6">
-        <v>42.0249582</v>
+        <v>41.605629399999998</v>
       </c>
       <c r="E1217" s="6">
-        <v>35.160789100000002</v>
+        <v>35.5965147</v>
       </c>
       <c r="G1217" s="7" t="s">
         <v>1031</v>
@@ -81567,15 +81578,15 @@
       </c>
       <c r="J1217" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ADA MAH ATMACA SOK. NO:4/A MERKEZ SINOP</v>
+        <v>ÇEŞME MAH. ESKİ ŞUBE SOK. NO:16 ALAÇAM SAMSUN</v>
       </c>
       <c r="K1217" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SINOP</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1217" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>MERKEZ</v>
+        <v>ALAÇAM</v>
       </c>
       <c r="M1217" s="3">
         <v>1</v>
@@ -81592,19 +81603,19 @@
     </row>
     <row r="1218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1218" s="6" t="s">
-        <v>4111</v>
+        <v>4113</v>
       </c>
       <c r="B1218" s="6" t="s">
-        <v>4112</v>
+        <v>4114</v>
       </c>
       <c r="C1218" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1218" s="6">
-        <v>41.605629399999998</v>
+        <v>42.018627899999998</v>
       </c>
       <c r="E1218" s="6">
-        <v>35.5965147</v>
+        <v>35.124920299999999</v>
       </c>
       <c r="G1218" s="7" t="s">
         <v>1031</v>
@@ -81617,15 +81628,15 @@
       </c>
       <c r="J1218" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇEŞME MAH. ESKİ ŞUBE SOK. NO:16 ALAÇAM SAMSUN</v>
+        <v>GELİNCİK MH.101 NO`LU SOK.NO:1 A () MERKEZ SINOP</v>
       </c>
       <c r="K1218" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>SINOP</v>
       </c>
       <c r="L1218" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ALAÇAM</v>
+        <v>MERKEZ</v>
       </c>
       <c r="M1218" s="3">
         <v>1</v>
@@ -81642,19 +81653,19 @@
     </row>
     <row r="1219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1219" s="6" t="s">
-        <v>4113</v>
+        <v>4115</v>
       </c>
       <c r="B1219" s="6" t="s">
-        <v>4114</v>
+        <v>4116</v>
       </c>
       <c r="C1219" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1219" s="6">
-        <v>42.018627899999998</v>
+        <v>42.020646599999999</v>
       </c>
       <c r="E1219" s="6">
-        <v>35.124920299999999</v>
+        <v>35.1319625</v>
       </c>
       <c r="G1219" s="7" t="s">
         <v>1031</v>
@@ -81667,7 +81678,7 @@
       </c>
       <c r="J1219" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GELİNCİK MH.101 NO`LU SOK.NO:1 A () MERKEZ SINOP</v>
+        <v>GELINCIK MH. ACAR SK. 1 () MERKEZ SINOP</v>
       </c>
       <c r="K1219" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81692,19 +81703,19 @@
     </row>
     <row r="1220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1220" s="6" t="s">
-        <v>4115</v>
+        <v>4117</v>
       </c>
       <c r="B1220" s="6" t="s">
-        <v>4116</v>
+        <v>4118</v>
       </c>
       <c r="C1220" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1220" s="6">
-        <v>42.020646599999999</v>
+        <v>42.027071599999999</v>
       </c>
       <c r="E1220" s="6">
-        <v>35.1319625</v>
+        <v>35.152059899999998</v>
       </c>
       <c r="G1220" s="7" t="s">
         <v>1031</v>
@@ -81717,7 +81728,7 @@
       </c>
       <c r="J1220" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GELINCIK MH. ACAR SK. 1 () MERKEZ SINOP</v>
+        <v>KEFEVİ MAH HÜKÜMET SOK. NO:7 MERKEZ SINOP</v>
       </c>
       <c r="K1220" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81742,19 +81753,19 @@
     </row>
     <row r="1221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1221" s="6" t="s">
-        <v>4117</v>
+        <v>4119</v>
       </c>
       <c r="B1221" s="6" t="s">
-        <v>4118</v>
+        <v>4120</v>
       </c>
       <c r="C1221" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1221" s="6">
-        <v>42.027071599999999</v>
+        <v>41.610137299999998</v>
       </c>
       <c r="E1221" s="6">
-        <v>35.152059899999998</v>
+        <v>35.599646700000001</v>
       </c>
       <c r="G1221" s="7" t="s">
         <v>1031</v>
@@ -81767,15 +81778,15 @@
       </c>
       <c r="J1221" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KEFEVİ MAH HÜKÜMET SOK. NO:7 MERKEZ SINOP</v>
+        <v>ALPARSLAN MAH LİSE CAD. NO:48 ALAÇAM SAMSUN</v>
       </c>
       <c r="K1221" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SINOP</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1221" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>MERKEZ</v>
+        <v>ALAÇAM</v>
       </c>
       <c r="M1221" s="3">
         <v>1</v>
@@ -81792,19 +81803,19 @@
     </row>
     <row r="1222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1222" s="6" t="s">
-        <v>4119</v>
+        <v>4121</v>
       </c>
       <c r="B1222" s="6" t="s">
-        <v>4120</v>
+        <v>4122</v>
       </c>
       <c r="C1222" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1222" s="6">
-        <v>41.610137299999998</v>
+        <v>41.803520800000001</v>
       </c>
       <c r="E1222" s="6">
-        <v>35.599646700000001</v>
+        <v>35.191329799999998</v>
       </c>
       <c r="G1222" s="7" t="s">
         <v>1031</v>
@@ -81817,15 +81828,15 @@
       </c>
       <c r="J1222" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALPARSLAN MAH LİSE CAD. NO:48 ALAÇAM SAMSUN</v>
+        <v>HAMİDİYE MAH. OKULLAR CAD. NO:2 GERZE SINOP</v>
       </c>
       <c r="K1222" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>SINOP</v>
       </c>
       <c r="L1222" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ALAÇAM</v>
+        <v>GERZE</v>
       </c>
       <c r="M1222" s="3">
         <v>1</v>
@@ -81842,19 +81853,19 @@
     </row>
     <row r="1223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1223" s="6" t="s">
-        <v>4121</v>
+        <v>4123</v>
       </c>
       <c r="B1223" s="6" t="s">
-        <v>4122</v>
+        <v>4124</v>
       </c>
       <c r="C1223" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1223" s="6">
-        <v>41.803520800000001</v>
+        <v>42.022432600000002</v>
       </c>
       <c r="E1223" s="6">
-        <v>35.191329799999998</v>
+        <v>35.159891000000002</v>
       </c>
       <c r="G1223" s="7" t="s">
         <v>1031</v>
@@ -81867,7 +81878,7 @@
       </c>
       <c r="J1223" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>HAMİDİYE MAH. OKULLAR CAD. NO:2 GERZE SINOP</v>
+        <v>ADA MAH ZEYTİNLİK YOLU NO:23 MERKEZ SINOP</v>
       </c>
       <c r="K1223" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81875,7 +81886,7 @@
       </c>
       <c r="L1223" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>GERZE</v>
+        <v>MERKEZ</v>
       </c>
       <c r="M1223" s="3">
         <v>1</v>
@@ -81892,19 +81903,19 @@
     </row>
     <row r="1224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1224" s="6" t="s">
-        <v>4123</v>
+        <v>4125</v>
       </c>
       <c r="B1224" s="6" t="s">
-        <v>4124</v>
+        <v>4126</v>
       </c>
       <c r="C1224" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1224" s="6">
-        <v>42.022432600000002</v>
+        <v>42.020895699999997</v>
       </c>
       <c r="E1224" s="6">
-        <v>35.159891000000002</v>
+        <v>35.167396799999999</v>
       </c>
       <c r="G1224" s="7" t="s">
         <v>1031</v>
@@ -81917,7 +81928,7 @@
       </c>
       <c r="J1224" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ADA MAH ZEYTİNLİK YOLU NO:23 MERKEZ SINOP</v>
+        <v>ZİYTİNLİK MH. PAZARYOLU SK. NO:12/A () MERKEZ SINOP</v>
       </c>
       <c r="K1224" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81942,19 +81953,19 @@
     </row>
     <row r="1225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1225" s="6" t="s">
-        <v>4125</v>
+        <v>4127</v>
       </c>
       <c r="B1225" s="6" t="s">
-        <v>4126</v>
+        <v>4128</v>
       </c>
       <c r="C1225" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1225" s="6">
-        <v>42.020895699999997</v>
+        <v>41.804809800000001</v>
       </c>
       <c r="E1225" s="6">
-        <v>35.167396799999999</v>
+        <v>35.196590999999998</v>
       </c>
       <c r="G1225" s="7" t="s">
         <v>1031</v>
@@ -81967,7 +81978,7 @@
       </c>
       <c r="J1225" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ZİYTİNLİK MH. PAZARYOLU SK. NO:12/A () MERKEZ SINOP</v>
+        <v>HAMİDİYE MAH. HAL CAD. NO:82 /14 ADRES KODU:3685614681 GERZE SINOP</v>
       </c>
       <c r="K1225" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -81975,7 +81986,7 @@
       </c>
       <c r="L1225" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>MERKEZ</v>
+        <v>GERZE</v>
       </c>
       <c r="M1225" s="3">
         <v>1</v>
@@ -81992,19 +82003,19 @@
     </row>
     <row r="1226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1226" s="6" t="s">
-        <v>4127</v>
+        <v>4129</v>
       </c>
       <c r="B1226" s="6" t="s">
-        <v>4128</v>
+        <v>4130</v>
       </c>
       <c r="C1226" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1226" s="6">
-        <v>41.804809800000001</v>
+        <v>42.0279156</v>
       </c>
       <c r="E1226" s="6">
-        <v>35.196590999999998</v>
+        <v>35.148331900000002</v>
       </c>
       <c r="G1226" s="7" t="s">
         <v>1031</v>
@@ -82017,7 +82028,7 @@
       </c>
       <c r="J1226" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>HAMİDİYE MAH. HAL CAD. NO:82 /14 ADRES KODU:3685614681 GERZE SINOP</v>
+        <v>MEYDANKAPI MAH NALBANT SK. NO:32/1 MERKEZ SINOP</v>
       </c>
       <c r="K1226" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82025,7 +82036,7 @@
       </c>
       <c r="L1226" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>GERZE</v>
+        <v>MERKEZ</v>
       </c>
       <c r="M1226" s="3">
         <v>1</v>
@@ -82042,19 +82053,19 @@
     </row>
     <row r="1227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1227" s="6" t="s">
-        <v>4129</v>
+        <v>4131</v>
       </c>
       <c r="B1227" s="6" t="s">
-        <v>4130</v>
+        <v>4132</v>
       </c>
       <c r="C1227" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1227" s="6">
-        <v>42.0279156</v>
+        <v>41.617359700000002</v>
       </c>
       <c r="E1227" s="6">
-        <v>35.148331900000002</v>
+        <v>35.606327100000001</v>
       </c>
       <c r="G1227" s="7" t="s">
         <v>1031</v>
@@ -82067,15 +82078,15 @@
       </c>
       <c r="J1227" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MEYDANKAPI MAH NALBANT SK. NO:32/1 MERKEZ SINOP</v>
+        <v>ALPARSLAN MAH. BAFRA CAD. NO:188 A-B ADRES KODU: 5051471935- 5027063980 ALAÇAM SAMSUN</v>
       </c>
       <c r="K1227" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SINOP</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1227" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>MERKEZ</v>
+        <v>ALAÇAM</v>
       </c>
       <c r="M1227" s="3">
         <v>1</v>
@@ -82092,19 +82103,19 @@
     </row>
     <row r="1228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1228" s="6" t="s">
-        <v>4131</v>
+        <v>4133</v>
       </c>
       <c r="B1228" s="6" t="s">
-        <v>4132</v>
+        <v>4134</v>
       </c>
       <c r="C1228" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1228" s="6">
-        <v>41.617359700000002</v>
+        <v>41.879940599999998</v>
       </c>
       <c r="E1228" s="6">
-        <v>35.606327100000001</v>
+        <v>34.909034200000001</v>
       </c>
       <c r="G1228" s="7" t="s">
         <v>1031</v>
@@ -82117,15 +82128,15 @@
       </c>
       <c r="J1228" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALPARSLAN MAH. BAFRA CAD. NO:188 A-B ADRES KODU: 5051471935- 5027063980 ALAÇAM SAMSUN</v>
+        <v>MERKEZ MAH. ATATÜRK CAD. NO:15/1 ERFELEK SINOP</v>
       </c>
       <c r="K1228" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>SINOP</v>
       </c>
       <c r="L1228" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ALAÇAM</v>
+        <v>ERFELEK</v>
       </c>
       <c r="M1228" s="3">
         <v>1</v>
@@ -82142,19 +82153,19 @@
     </row>
     <row r="1229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1229" s="6" t="s">
-        <v>4133</v>
+        <v>4135</v>
       </c>
       <c r="B1229" s="6" t="s">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="C1229" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1229" s="6">
-        <v>41.879940599999998</v>
+        <v>41.809548599999999</v>
       </c>
       <c r="E1229" s="6">
-        <v>34.909034200000001</v>
+        <v>35.189985399999998</v>
       </c>
       <c r="G1229" s="7" t="s">
         <v>1031</v>
@@ -82167,7 +82178,7 @@
       </c>
       <c r="J1229" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MERKEZ MAH. ATATÜRK CAD. NO:15/1 ERFELEK SINOP</v>
+        <v>19 MAYIS MAH. CEYLAN SOK. NO:2 A GERZE SINOP</v>
       </c>
       <c r="K1229" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82175,7 +82186,7 @@
       </c>
       <c r="L1229" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ERFELEK</v>
+        <v>GERZE</v>
       </c>
       <c r="M1229" s="3">
         <v>1</v>
@@ -82192,19 +82203,19 @@
     </row>
     <row r="1230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1230" s="6" t="s">
-        <v>4135</v>
+        <v>4137</v>
       </c>
       <c r="B1230" s="6" t="s">
-        <v>4136</v>
+        <v>4138</v>
       </c>
       <c r="C1230" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1230" s="6">
-        <v>41.809548599999999</v>
+        <v>41.803256599999997</v>
       </c>
       <c r="E1230" s="6">
-        <v>35.189985399999998</v>
+        <v>35.189845300000002</v>
       </c>
       <c r="G1230" s="7" t="s">
         <v>1031</v>
@@ -82217,7 +82228,7 @@
       </c>
       <c r="J1230" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>19 MAYIS MAH. CEYLAN SOK. NO:2 A GERZE SINOP</v>
+        <v>CUMHURİYET MAH. SAMSUN CAD. NO: 16 A GERZE SINOP</v>
       </c>
       <c r="K1230" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82242,19 +82253,19 @@
     </row>
     <row r="1231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1231" s="6" t="s">
-        <v>4137</v>
+        <v>4139</v>
       </c>
       <c r="B1231" s="6" t="s">
-        <v>4138</v>
+        <v>4140</v>
       </c>
       <c r="C1231" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1231" s="6">
-        <v>41.803256599999997</v>
+        <v>42.0206631</v>
       </c>
       <c r="E1231" s="6">
-        <v>35.189845300000002</v>
+        <v>35.1599553</v>
       </c>
       <c r="G1231" s="7" t="s">
         <v>1031</v>
@@ -82267,7 +82278,7 @@
       </c>
       <c r="J1231" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MAH. SAMSUN CAD. NO: 16 A GERZE SINOP</v>
+        <v>ADA MAH ENVER BAHADIR CAD. NO:25/1B MERKEZ SINOP</v>
       </c>
       <c r="K1231" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82275,7 +82286,7 @@
       </c>
       <c r="L1231" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>GERZE</v>
+        <v>MERKEZ</v>
       </c>
       <c r="M1231" s="3">
         <v>1</v>
@@ -82292,19 +82303,19 @@
     </row>
     <row r="1232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1232" s="6" t="s">
-        <v>4139</v>
+        <v>4141</v>
       </c>
       <c r="B1232" s="6" t="s">
-        <v>4140</v>
+        <v>4142</v>
       </c>
       <c r="C1232" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1232" s="6">
-        <v>42.0206631</v>
+        <v>42.0026966</v>
       </c>
       <c r="E1232" s="6">
-        <v>35.1599553</v>
+        <v>35.078293700000003</v>
       </c>
       <c r="G1232" s="7" t="s">
         <v>1031</v>
@@ -82317,7 +82328,7 @@
       </c>
       <c r="J1232" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ADA MAH ENVER BAHADIR CAD. NO:25/1B MERKEZ SINOP</v>
+        <v>KORUCUK MAH. TIRKIŞLAR KÜME EVLERİ B. DEMİR BLOK NO:9/1D MERKEZ SINOP</v>
       </c>
       <c r="K1232" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82342,19 +82353,19 @@
     </row>
     <row r="1233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1233" s="6" t="s">
-        <v>4141</v>
+        <v>4143</v>
       </c>
       <c r="B1233" s="6" t="s">
-        <v>4142</v>
+        <v>4144</v>
       </c>
       <c r="C1233" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1233" s="6">
-        <v>42.0026966</v>
+        <v>42.041094299999997</v>
       </c>
       <c r="E1233" s="6">
-        <v>35.078293700000003</v>
+        <v>35.042683099999998</v>
       </c>
       <c r="G1233" s="7" t="s">
         <v>1031</v>
@@ -82367,7 +82378,7 @@
       </c>
       <c r="J1233" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KORUCUK MAH. TIRKIŞLAR KÜME EVLERİ B. DEMİR BLOK NO:9/1D MERKEZ SINOP</v>
+        <v>AKLİMAN MAH (ABALI KÖYÜ) AKLİMAN KÜME EVLERİ NO:34/1A MERKEZ SINOP</v>
       </c>
       <c r="K1233" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82392,19 +82403,19 @@
     </row>
     <row r="1234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1234" s="6" t="s">
-        <v>4143</v>
+        <v>4145</v>
       </c>
       <c r="B1234" s="6" t="s">
-        <v>4144</v>
+        <v>4146</v>
       </c>
       <c r="C1234" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1234" s="6">
-        <v>42.041094299999997</v>
+        <v>41.6178466</v>
       </c>
       <c r="E1234" s="6">
-        <v>35.042683099999998</v>
+        <v>35.607814300000001</v>
       </c>
       <c r="G1234" s="7" t="s">
         <v>1031</v>
@@ -82417,15 +82428,15 @@
       </c>
       <c r="J1234" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>AKLİMAN MAH (ABALI KÖYÜ) AKLİMAN KÜME EVLERİ NO:34/1A MERKEZ SINOP</v>
+        <v>FATİH MAH GEYİKKOŞAN CAD. NO:20 ALAÇAM SAMSUN</v>
       </c>
       <c r="K1234" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SINOP</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1234" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>MERKEZ</v>
+        <v>ALAÇAM</v>
       </c>
       <c r="M1234" s="3">
         <v>1</v>
@@ -82442,19 +82453,19 @@
     </row>
     <row r="1235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1235" s="6" t="s">
-        <v>4145</v>
+        <v>4147</v>
       </c>
       <c r="B1235" s="6" t="s">
-        <v>4146</v>
+        <v>4148</v>
       </c>
       <c r="C1235" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1235" s="6">
-        <v>41.6178466</v>
+        <v>41.807788000000002</v>
       </c>
       <c r="E1235" s="6">
-        <v>35.607814300000001</v>
+        <v>35.186050000000002</v>
       </c>
       <c r="G1235" s="7" t="s">
         <v>1031</v>
@@ -82467,15 +82478,15 @@
       </c>
       <c r="J1235" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>FATİH MAH GEYİKKOŞAN CAD. NO:20 ALAÇAM SAMSUN</v>
+        <v>19 MAYIS MAH MUTLU SOK. NO:8A GERZE SINOP</v>
       </c>
       <c r="K1235" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>SINOP</v>
       </c>
       <c r="L1235" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ALAÇAM</v>
+        <v>GERZE</v>
       </c>
       <c r="M1235" s="3">
         <v>1</v>
@@ -82492,19 +82503,19 @@
     </row>
     <row r="1236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1236" s="6" t="s">
-        <v>4147</v>
+        <v>4149</v>
       </c>
       <c r="B1236" s="6" t="s">
-        <v>4148</v>
+        <v>4150</v>
       </c>
       <c r="C1236" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1236" s="6">
-        <v>41.807788000000002</v>
+        <v>41.880256000000003</v>
       </c>
       <c r="E1236" s="6">
-        <v>35.186050000000002</v>
+        <v>34.903671000000003</v>
       </c>
       <c r="G1236" s="7" t="s">
         <v>1031</v>
@@ -82517,7 +82528,7 @@
       </c>
       <c r="J1236" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>19 MAYIS MAH MUTLU SOK. NO:8A GERZE SINOP</v>
+        <v>MERKEZ MAH YURT SOK. NO:1A ERFELEK SINOP</v>
       </c>
       <c r="K1236" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82525,7 +82536,7 @@
       </c>
       <c r="L1236" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>GERZE</v>
+        <v>ERFELEK</v>
       </c>
       <c r="M1236" s="3">
         <v>1</v>
@@ -82542,19 +82553,19 @@
     </row>
     <row r="1237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1237" s="6" t="s">
-        <v>4149</v>
+        <v>4151</v>
       </c>
       <c r="B1237" s="6" t="s">
-        <v>4150</v>
+        <v>4152</v>
       </c>
       <c r="C1237" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1237" s="6">
-        <v>41.880256000000003</v>
+        <v>42.027094300000002</v>
       </c>
       <c r="E1237" s="6">
-        <v>34.903671000000003</v>
+        <v>35.159989699999997</v>
       </c>
       <c r="G1237" s="7" t="s">
         <v>1031</v>
@@ -82567,7 +82578,7 @@
       </c>
       <c r="J1237" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MERKEZ MAH YURT SOK. NO:1A ERFELEK SINOP</v>
+        <v>ADA MAH KIZILTOPRAK SOK. NO:24/A MERKEZ SINOP</v>
       </c>
       <c r="K1237" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82575,7 +82586,7 @@
       </c>
       <c r="L1237" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ERFELEK</v>
+        <v>MERKEZ</v>
       </c>
       <c r="M1237" s="3">
         <v>1</v>
@@ -82592,19 +82603,19 @@
     </row>
     <row r="1238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1238" s="6" t="s">
-        <v>4151</v>
+        <v>4153</v>
       </c>
       <c r="B1238" s="6" t="s">
-        <v>4152</v>
+        <v>4154</v>
       </c>
       <c r="C1238" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1238" s="6">
-        <v>42.027094300000002</v>
+        <v>41.633544200000003</v>
       </c>
       <c r="E1238" s="6">
-        <v>35.159989699999997</v>
+        <v>35.525911800000003</v>
       </c>
       <c r="G1238" s="7" t="s">
         <v>1031</v>
@@ -82617,15 +82628,15 @@
       </c>
       <c r="J1238" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ADA MAH KIZILTOPRAK SOK. NO:24/A MERKEZ SINOP</v>
+        <v>MERKEZ MAH CUMHURİYET SK. NO:65 YAKAKENT SAMSUN</v>
       </c>
       <c r="K1238" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SINOP</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1238" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>MERKEZ</v>
+        <v>YAKAKENT</v>
       </c>
       <c r="M1238" s="3">
         <v>1</v>
@@ -82642,19 +82653,19 @@
     </row>
     <row r="1239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1239" s="6" t="s">
-        <v>4153</v>
+        <v>4155</v>
       </c>
       <c r="B1239" s="6" t="s">
-        <v>4154</v>
+        <v>4156</v>
       </c>
       <c r="C1239" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1239" s="6">
-        <v>41.633544200000003</v>
+        <v>41.652186399999998</v>
       </c>
       <c r="E1239" s="6">
-        <v>35.525911800000003</v>
+        <v>35.2649537</v>
       </c>
       <c r="G1239" s="7" t="s">
         <v>1031</v>
@@ -82667,15 +82678,15 @@
       </c>
       <c r="J1239" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MERKEZ MAH CUMHURİYET SK. NO:65 YAKAKENT SAMSUN</v>
+        <v>KIRÇAL MAH ŞEHİT GAFFAR OKKAN CAD. NO:39 DIKMEN SINOP</v>
       </c>
       <c r="K1239" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>SINOP</v>
       </c>
       <c r="L1239" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>YAKAKENT</v>
+        <v>DIKMEN</v>
       </c>
       <c r="M1239" s="3">
         <v>1</v>
@@ -82692,19 +82703,19 @@
     </row>
     <row r="1240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1240" s="6" t="s">
-        <v>4155</v>
+        <v>4157</v>
       </c>
       <c r="B1240" s="6" t="s">
-        <v>4156</v>
+        <v>4158</v>
       </c>
       <c r="C1240" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1240" s="6">
-        <v>41.652186399999998</v>
+        <v>41.807092500000003</v>
       </c>
       <c r="E1240" s="6">
-        <v>35.2649537</v>
+        <v>35.193188599999999</v>
       </c>
       <c r="G1240" s="7" t="s">
         <v>1031</v>
@@ -82717,7 +82728,7 @@
       </c>
       <c r="J1240" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KIRÇAL MAH ŞEHİT GAFFAR OKKAN CAD. NO:39 DIKMEN SINOP</v>
+        <v>HAMİDİYE MAH MEHMETÇİK CAD. NO:4/A–B GERZE SINOP</v>
       </c>
       <c r="K1240" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82725,7 +82736,7 @@
       </c>
       <c r="L1240" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>DIKMEN</v>
+        <v>GERZE</v>
       </c>
       <c r="M1240" s="3">
         <v>1</v>
@@ -82742,19 +82753,19 @@
     </row>
     <row r="1241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1241" s="6" t="s">
-        <v>4157</v>
+        <v>4159</v>
       </c>
       <c r="B1241" s="6" t="s">
-        <v>4158</v>
+        <v>4160</v>
       </c>
       <c r="C1241" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1241" s="6">
-        <v>41.807092500000003</v>
+        <v>41.259687700000001</v>
       </c>
       <c r="E1241" s="6">
-        <v>35.193188599999999</v>
+        <v>36.355777000000003</v>
       </c>
       <c r="G1241" s="7" t="s">
         <v>1031</v>
@@ -82767,15 +82778,15 @@
       </c>
       <c r="J1241" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>HAMİDİYE MAH MEHMETÇİK CAD. NO:4/A–B GERZE SINOP</v>
+        <v>GAZİOSMANPASA MH. ŞEHİT MESUT 1.CD. NO:209 CANİK</v>
       </c>
       <c r="K1241" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SINOP</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1241" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>GERZE</v>
+        <v>CANIK</v>
       </c>
       <c r="M1241" s="3">
         <v>1</v>
@@ -82792,19 +82803,19 @@
     </row>
     <row r="1242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1242" s="6" t="s">
-        <v>4159</v>
+        <v>4161</v>
       </c>
       <c r="B1242" s="6" t="s">
-        <v>4160</v>
+        <v>4162</v>
       </c>
       <c r="C1242" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1242" s="6">
-        <v>41.259687700000001</v>
+        <v>41.268951399999999</v>
       </c>
       <c r="E1242" s="6">
-        <v>36.355777000000003</v>
+        <v>36.366604899999999</v>
       </c>
       <c r="G1242" s="7" t="s">
         <v>1031</v>
@@ -82817,7 +82828,7 @@
       </c>
       <c r="J1242" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GAZİOSMANPASA MH. ŞEHİT MESUT 1.CD. NO:209 CANİK</v>
+        <v>BELEDİYE EVLERİ MH. C.TOPEL CD. NO:47/B CANIK SAMSUN</v>
       </c>
       <c r="K1242" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82842,19 +82853,19 @@
     </row>
     <row r="1243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1243" s="6" t="s">
-        <v>4161</v>
+        <v>4163</v>
       </c>
       <c r="B1243" s="6" t="s">
-        <v>4162</v>
+        <v>4164</v>
       </c>
       <c r="C1243" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1243" s="6">
-        <v>41.268951399999999</v>
+        <v>41.212395700000002</v>
       </c>
       <c r="E1243" s="6">
-        <v>36.366604899999999</v>
+        <v>36.458344799999999</v>
       </c>
       <c r="G1243" s="7" t="s">
         <v>1031</v>
@@ -82867,7 +82878,7 @@
       </c>
       <c r="J1243" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BELEDİYE EVLERİ MH. C.TOPEL CD. NO:47/B CANIK SAMSUN</v>
+        <v>23 NİSAN MAH. HACI ALİ EKİNCİ SOK. NO:3 TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1243" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82875,7 +82886,7 @@
       </c>
       <c r="L1243" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1243" s="3">
         <v>1</v>
@@ -82892,19 +82903,19 @@
     </row>
     <row r="1244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1244" s="6" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="B1244" s="6" t="s">
-        <v>4164</v>
+        <v>4166</v>
       </c>
       <c r="C1244" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1244" s="6">
-        <v>41.212395700000002</v>
+        <v>41.266182100000002</v>
       </c>
       <c r="E1244" s="6">
-        <v>36.458344799999999</v>
+        <v>36.3387156</v>
       </c>
       <c r="G1244" s="7" t="s">
         <v>1031</v>
@@ -82917,7 +82928,7 @@
       </c>
       <c r="J1244" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>23 NİSAN MAH. HACI ALİ EKİNCİ SOK. NO:3 TEKKEKÖY SAMSUN</v>
+        <v>DEREBAHÇE MH. BAHÇE SK. NO:13/1 ILKADIM SAMSUN</v>
       </c>
       <c r="K1244" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82925,7 +82936,7 @@
       </c>
       <c r="L1244" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1244" s="3">
         <v>1</v>
@@ -82942,19 +82953,19 @@
     </row>
     <row r="1245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1245" s="6" t="s">
-        <v>4165</v>
+        <v>4167</v>
       </c>
       <c r="B1245" s="6" t="s">
-        <v>4166</v>
+        <v>4168</v>
       </c>
       <c r="C1245" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1245" s="6">
-        <v>41.266182100000002</v>
+        <v>41.264429</v>
       </c>
       <c r="E1245" s="6">
-        <v>36.3387156</v>
+        <v>36.365860099999999</v>
       </c>
       <c r="G1245" s="7" t="s">
         <v>1031</v>
@@ -82967,7 +82978,7 @@
       </c>
       <c r="J1245" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DEREBAHÇE MH. BAHÇE SK. NO:13/1 ILKADIM SAMSUN</v>
+        <v>BELEDİYE EVLERİ MAH. GEDİZLİ SOK. NO:1/1 CANIK SAMSUN</v>
       </c>
       <c r="K1245" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -82975,7 +82986,7 @@
       </c>
       <c r="L1245" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>CANIK</v>
       </c>
       <c r="M1245" s="3">
         <v>1</v>
@@ -82992,19 +83003,19 @@
     </row>
     <row r="1246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1246" s="6" t="s">
-        <v>4167</v>
+        <v>4169</v>
       </c>
       <c r="B1246" s="6" t="s">
-        <v>4168</v>
+        <v>4170</v>
       </c>
       <c r="C1246" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1246" s="6">
-        <v>41.264429</v>
+        <v>41.253084999999999</v>
       </c>
       <c r="E1246" s="6">
-        <v>36.365860099999999</v>
+        <v>36.360624999999999</v>
       </c>
       <c r="G1246" s="7" t="s">
         <v>1031</v>
@@ -83017,7 +83028,7 @@
       </c>
       <c r="J1246" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BELEDİYE EVLERİ MAH. GEDİZLİ SOK. NO:1/1 CANIK SAMSUN</v>
+        <v>TEKNEPINAR MAH. YENİ SOK. NO:192/1 CANIK SAMSUN</v>
       </c>
       <c r="K1246" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83042,19 +83053,19 @@
     </row>
     <row r="1247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1247" s="6" t="s">
-        <v>4169</v>
+        <v>4171</v>
       </c>
       <c r="B1247" s="6" t="s">
-        <v>4170</v>
+        <v>4172</v>
       </c>
       <c r="C1247" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1247" s="6">
-        <v>41.253084999999999</v>
+        <v>41.266693199999999</v>
       </c>
       <c r="E1247" s="6">
-        <v>36.360624999999999</v>
+        <v>36.359997100000001</v>
       </c>
       <c r="G1247" s="7" t="s">
         <v>1031</v>
@@ -83067,7 +83078,7 @@
       </c>
       <c r="J1247" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>TEKNEPINAR MAH. YENİ SOK. NO:192/1 CANIK SAMSUN</v>
+        <v>_ KARŞIYAKA MAH. 315. SOK. SAMSUN(MERKEZ) SAMSUN</v>
       </c>
       <c r="K1247" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83075,7 +83086,7 @@
       </c>
       <c r="L1247" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>SAMSUN(MERKEZ)</v>
       </c>
       <c r="M1247" s="3">
         <v>1</v>
@@ -83092,19 +83103,19 @@
     </row>
     <row r="1248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1248" s="6" t="s">
-        <v>4171</v>
+        <v>4173</v>
       </c>
       <c r="B1248" s="6" t="s">
-        <v>4172</v>
+        <v>4174</v>
       </c>
       <c r="C1248" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1248" s="6">
-        <v>41.266693199999999</v>
+        <v>41.2201503</v>
       </c>
       <c r="E1248" s="6">
-        <v>36.359997100000001</v>
+        <v>36.452207600000001</v>
       </c>
       <c r="G1248" s="7" t="s">
         <v>1031</v>
@@ -83117,7 +83128,7 @@
       </c>
       <c r="J1248" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>_ KARŞIYAKA MAH. 315. SOK. SAMSUN(MERKEZ) SAMSUN</v>
+        <v>KURTULUŞ MH. ŞEYH ZEYNETTİN CD. NO:28/1   TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1248" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83125,7 +83136,7 @@
       </c>
       <c r="L1248" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>SAMSUN(MERKEZ)</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1248" s="3">
         <v>1</v>
@@ -83142,19 +83153,19 @@
     </row>
     <row r="1249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1249" s="6" t="s">
-        <v>4173</v>
+        <v>4175</v>
       </c>
       <c r="B1249" s="6" t="s">
-        <v>4174</v>
+        <v>4176</v>
       </c>
       <c r="C1249" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1249" s="6">
-        <v>41.2201503</v>
+        <v>41.271483799999999</v>
       </c>
       <c r="E1249" s="6">
-        <v>36.452207600000001</v>
+        <v>36.366281100000002</v>
       </c>
       <c r="G1249" s="7" t="s">
         <v>1031</v>
@@ -83167,7 +83178,7 @@
       </c>
       <c r="J1249" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KURTULUŞ MH. ŞEYH ZEYNETTİN CD. NO:28/1   TEKKEKÖY SAMSUN</v>
+        <v>KARŞIYAKA MAH MEKKE CAD. NO:78 CANIK SAMSUN</v>
       </c>
       <c r="K1249" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83175,7 +83186,7 @@
       </c>
       <c r="L1249" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>CANIK</v>
       </c>
       <c r="M1249" s="3">
         <v>1</v>
@@ -83192,19 +83203,19 @@
     </row>
     <row r="1250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1250" s="6" t="s">
-        <v>4175</v>
+        <v>4177</v>
       </c>
       <c r="B1250" s="6" t="s">
-        <v>4176</v>
+        <v>4178</v>
       </c>
       <c r="C1250" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1250" s="6">
-        <v>41.271483799999999</v>
+        <v>41.215735899999999</v>
       </c>
       <c r="E1250" s="6">
-        <v>36.366281100000002</v>
+        <v>36.455186699999999</v>
       </c>
       <c r="G1250" s="7" t="s">
         <v>1031</v>
@@ -83217,7 +83228,7 @@
       </c>
       <c r="J1250" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KARŞIYAKA MAH MEKKE CAD. NO:78 CANIK SAMSUN</v>
+        <v>KURTULUŞ MH. ŞEYH ZEYNETTİN CD. NO:84/B</v>
       </c>
       <c r="K1250" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83225,7 +83236,7 @@
       </c>
       <c r="L1250" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1250" s="3">
         <v>1</v>
@@ -83242,19 +83253,19 @@
     </row>
     <row r="1251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1251" s="6" t="s">
-        <v>4177</v>
+        <v>4179</v>
       </c>
       <c r="B1251" s="6" t="s">
-        <v>4178</v>
+        <v>4180</v>
       </c>
       <c r="C1251" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1251" s="6">
-        <v>41.215735899999999</v>
+        <v>41.257576800000002</v>
       </c>
       <c r="E1251" s="6">
-        <v>36.455186699999999</v>
+        <v>36.366665599999997</v>
       </c>
       <c r="G1251" s="7" t="s">
         <v>1031</v>
@@ -83267,7 +83278,7 @@
       </c>
       <c r="J1251" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KURTULUŞ MH. ŞEYH ZEYNETTİN CD. NO:84/B</v>
+        <v>HASKÖY MH. ÜSKÜP CD. NO:60/C-2-3-4 CANIK SAMSUN</v>
       </c>
       <c r="K1251" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83275,7 +83286,7 @@
       </c>
       <c r="L1251" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>CANIK</v>
       </c>
       <c r="M1251" s="3">
         <v>1</v>
@@ -83292,19 +83303,19 @@
     </row>
     <row r="1252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1252" s="6" t="s">
-        <v>4179</v>
+        <v>4181</v>
       </c>
       <c r="B1252" s="6" t="s">
-        <v>4180</v>
+        <v>4182</v>
       </c>
       <c r="C1252" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1252" s="6">
-        <v>41.257576800000002</v>
+        <v>41.239412399999999</v>
       </c>
       <c r="E1252" s="6">
-        <v>36.366665599999997</v>
+        <v>36.406356700000003</v>
       </c>
       <c r="G1252" s="7" t="s">
         <v>1031</v>
@@ -83317,7 +83328,7 @@
       </c>
       <c r="J1252" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>HASKÖY MH. ÜSKÜP CD. NO:60/C-2-3-4 CANIK SAMSUN</v>
+        <v>KİRAZLIK MH. ATATÜRK BULVARI NO:98/1 TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1252" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83325,7 +83336,7 @@
       </c>
       <c r="L1252" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1252" s="3">
         <v>1</v>
@@ -83342,19 +83353,19 @@
     </row>
     <row r="1253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1253" s="6" t="s">
-        <v>4181</v>
+        <v>4183</v>
       </c>
       <c r="B1253" s="6" t="s">
-        <v>4182</v>
+        <v>4184</v>
       </c>
       <c r="C1253" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1253" s="6">
-        <v>41.239412399999999</v>
+        <v>41.269121699999999</v>
       </c>
       <c r="E1253" s="6">
-        <v>36.406356700000003</v>
+        <v>36.351154999999999</v>
       </c>
       <c r="G1253" s="7" t="s">
         <v>1031</v>
@@ -83367,7 +83378,7 @@
       </c>
       <c r="J1253" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KİRAZLIK MH. ATATÜRK BULVARI NO:98/1 TEKKEKÖY SAMSUN</v>
+        <v>BIM A.S. (D271 KUZEY YILDIZI) CANIK SAMSUN</v>
       </c>
       <c r="K1253" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83375,7 +83386,7 @@
       </c>
       <c r="L1253" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>CANIK</v>
       </c>
       <c r="M1253" s="3">
         <v>1</v>
@@ -83392,19 +83403,19 @@
     </row>
     <row r="1254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1254" s="6" t="s">
-        <v>4183</v>
+        <v>4185</v>
       </c>
       <c r="B1254" s="6" t="s">
-        <v>4184</v>
+        <v>4186</v>
       </c>
       <c r="C1254" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1254" s="6">
-        <v>41.269121699999999</v>
+        <v>41.264704500000001</v>
       </c>
       <c r="E1254" s="6">
-        <v>36.351154999999999</v>
+        <v>36.335858899999998</v>
       </c>
       <c r="G1254" s="7" t="s">
         <v>1031</v>
@@ -83417,7 +83428,7 @@
       </c>
       <c r="J1254" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BIM A.S. (D271 KUZEY YILDIZI) CANIK SAMSUN</v>
+        <v>DEREBAHÇE MH. KAFKAS SK. NO:47/13-14-15-16 ILKADIM SAMSUN</v>
       </c>
       <c r="K1254" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83425,7 +83436,7 @@
       </c>
       <c r="L1254" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1254" s="3">
         <v>1</v>
@@ -83442,19 +83453,19 @@
     </row>
     <row r="1255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1255" s="6" t="s">
-        <v>4185</v>
+        <v>4187</v>
       </c>
       <c r="B1255" s="6" t="s">
-        <v>4186</v>
+        <v>4188</v>
       </c>
       <c r="C1255" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1255" s="6">
-        <v>41.264704500000001</v>
+        <v>41.258913800000002</v>
       </c>
       <c r="E1255" s="6">
-        <v>36.335858899999998</v>
+        <v>36.362008400000001</v>
       </c>
       <c r="G1255" s="7" t="s">
         <v>1031</v>
@@ -83467,7 +83478,7 @@
       </c>
       <c r="J1255" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DEREBAHÇE MH. KAFKAS SK. NO:47/13-14-15-16 ILKADIM SAMSUN</v>
+        <v>HASKÖY MH. CENGİZ TOPEL CD. NO:150/2    CANIK SAMSUN</v>
       </c>
       <c r="K1255" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83475,7 +83486,7 @@
       </c>
       <c r="L1255" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>CANIK</v>
       </c>
       <c r="M1255" s="3">
         <v>1</v>
@@ -83492,19 +83503,19 @@
     </row>
     <row r="1256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1256" s="6" t="s">
-        <v>4187</v>
+        <v>4189</v>
       </c>
       <c r="B1256" s="6" t="s">
-        <v>4188</v>
+        <v>4190</v>
       </c>
       <c r="C1256" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1256" s="6">
-        <v>41.258913800000002</v>
+        <v>41.259226699999999</v>
       </c>
       <c r="E1256" s="6">
-        <v>36.362008400000001</v>
+        <v>36.351349499999998</v>
       </c>
       <c r="G1256" s="7" t="s">
         <v>1031</v>
@@ -83517,7 +83528,7 @@
       </c>
       <c r="J1256" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>HASKÖY MH. CENGİZ TOPEL CD. NO:150/2    CANIK SAMSUN</v>
+        <v>GAZİOSMANPAŞA MAH. AYDINOĞULLARI SOK. NO:25/AA CANIK SAMSUN</v>
       </c>
       <c r="K1256" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83542,19 +83553,19 @@
     </row>
     <row r="1257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1257" s="6" t="s">
-        <v>4189</v>
+        <v>4191</v>
       </c>
       <c r="B1257" s="6" t="s">
-        <v>4190</v>
+        <v>4192</v>
       </c>
       <c r="C1257" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1257" s="6">
-        <v>41.259226699999999</v>
+        <v>41.220740300000003</v>
       </c>
       <c r="E1257" s="6">
-        <v>36.351349499999998</v>
+        <v>36.459990300000001</v>
       </c>
       <c r="G1257" s="7" t="s">
         <v>1031</v>
@@ -83567,7 +83578,7 @@
       </c>
       <c r="J1257" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GAZİOSMANPAŞA MAH. AYDINOĞULLARI SOK. NO:25/AA CANIK SAMSUN</v>
+        <v>19 MAYIS MAH. HACI ALİ EKİNCİ BULVARI NO:29/B TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1257" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83575,7 +83586,7 @@
       </c>
       <c r="L1257" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1257" s="3">
         <v>1</v>
@@ -83592,19 +83603,19 @@
     </row>
     <row r="1258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1258" s="6" t="s">
-        <v>4191</v>
+        <v>4193</v>
       </c>
       <c r="B1258" s="6" t="s">
-        <v>4192</v>
+        <v>4194</v>
       </c>
       <c r="C1258" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1258" s="6">
-        <v>41.220740300000003</v>
+        <v>41.264456899999999</v>
       </c>
       <c r="E1258" s="6">
-        <v>36.459990300000001</v>
+        <v>36.361463399999998</v>
       </c>
       <c r="G1258" s="7" t="s">
         <v>1031</v>
@@ -83617,7 +83628,7 @@
       </c>
       <c r="J1258" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>19 MAYIS MAH. HACI ALİ EKİNCİ BULVARI NO:29/B TEKKEKÖY SAMSUN</v>
+        <v>ULUDAĞ MAH. İSKİLİP SOK. NO: 24 / 11 CANIK SAMSUN</v>
       </c>
       <c r="K1258" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83625,7 +83636,7 @@
       </c>
       <c r="L1258" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>CANIK</v>
       </c>
       <c r="M1258" s="3">
         <v>1</v>
@@ -83642,19 +83653,19 @@
     </row>
     <row r="1259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1259" s="6" t="s">
-        <v>4193</v>
+        <v>4195</v>
       </c>
       <c r="B1259" s="6" t="s">
-        <v>4194</v>
+        <v>4196</v>
       </c>
       <c r="C1259" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1259" s="6">
-        <v>41.264456899999999</v>
+        <v>41.209930300000003</v>
       </c>
       <c r="E1259" s="6">
-        <v>36.361463399999998</v>
+        <v>36.463212400000003</v>
       </c>
       <c r="G1259" s="7" t="s">
         <v>1031</v>
@@ -83667,7 +83678,7 @@
       </c>
       <c r="J1259" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ULUDAĞ MAH. İSKİLİP SOK. NO: 24 / 11 CANIK SAMSUN</v>
+        <v>ÇAY MAH. ŞEYH ZEYNEDDİN CAD. NO:199 /17-18 TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1259" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83675,7 +83686,7 @@
       </c>
       <c r="L1259" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1259" s="3">
         <v>1</v>
@@ -83692,19 +83703,19 @@
     </row>
     <row r="1260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1260" s="6" t="s">
-        <v>4195</v>
+        <v>4197</v>
       </c>
       <c r="B1260" s="6" t="s">
-        <v>4196</v>
+        <v>4198</v>
       </c>
       <c r="C1260" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1260" s="6">
-        <v>41.209930300000003</v>
+        <v>41.237388500000002</v>
       </c>
       <c r="E1260" s="6">
-        <v>36.463212400000003</v>
+        <v>36.409304800000001</v>
       </c>
       <c r="G1260" s="7" t="s">
         <v>1031</v>
@@ -83717,7 +83728,7 @@
       </c>
       <c r="J1260" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇAY MAH. ŞEYH ZEYNEDDİN CAD. NO:199 /17-18 TEKKEKÖY SAMSUN</v>
+        <v>İSTİKLAL MAH. KANUNİ SULTAN SÜLEYMAN CAD. NO:3B ADRES KODU:5278645386 TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1260" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83742,19 +83753,19 @@
     </row>
     <row r="1261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1261" s="6" t="s">
-        <v>4197</v>
+        <v>4199</v>
       </c>
       <c r="B1261" s="6" t="s">
-        <v>4198</v>
+        <v>4200</v>
       </c>
       <c r="C1261" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1261" s="6">
-        <v>41.237388500000002</v>
+        <v>41.259913500000003</v>
       </c>
       <c r="E1261" s="6">
-        <v>36.409304800000001</v>
+        <v>36.3585639</v>
       </c>
       <c r="G1261" s="7" t="s">
         <v>1031</v>
@@ -83767,7 +83778,7 @@
       </c>
       <c r="J1261" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>İSTİKLAL MAH. KANUNİ SULTAN SÜLEYMAN CAD. NO:3B ADRES KODU:5278645386 TEKKEKÖY SAMSUN</v>
+        <v>ULUDAĞ MAH. MAHMUDİYE CAD. NO:45/1 CANIK SAMSUN</v>
       </c>
       <c r="K1261" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83775,7 +83786,7 @@
       </c>
       <c r="L1261" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>CANIK</v>
       </c>
       <c r="M1261" s="3">
         <v>1</v>
@@ -83792,19 +83803,19 @@
     </row>
     <row r="1262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1262" s="6" t="s">
-        <v>4199</v>
+        <v>4201</v>
       </c>
       <c r="B1262" s="6" t="s">
-        <v>4200</v>
+        <v>4202</v>
       </c>
       <c r="C1262" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1262" s="6">
-        <v>41.259913500000003</v>
+        <v>41.2686001</v>
       </c>
       <c r="E1262" s="6">
-        <v>36.3585639</v>
+        <v>36.342918300000001</v>
       </c>
       <c r="G1262" s="7" t="s">
         <v>1031</v>
@@ -83817,7 +83828,7 @@
       </c>
       <c r="J1262" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ULUDAĞ MAH. MAHMUDİYE CAD. NO:45/1 CANIK SAMSUN</v>
+        <v>DEREBAHÇE MAH. YENİ AY SOK. NO:1-13/14 ILKADIM SAMSUN</v>
       </c>
       <c r="K1262" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83825,7 +83836,7 @@
       </c>
       <c r="L1262" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1262" s="3">
         <v>1</v>
@@ -83842,19 +83853,19 @@
     </row>
     <row r="1263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1263" s="6" t="s">
-        <v>4201</v>
+        <v>4203</v>
       </c>
       <c r="B1263" s="6" t="s">
-        <v>4202</v>
+        <v>4204</v>
       </c>
       <c r="C1263" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1263" s="6">
-        <v>41.2686001</v>
+        <v>41.217671899999999</v>
       </c>
       <c r="E1263" s="6">
-        <v>36.342918300000001</v>
+        <v>36.457630899999998</v>
       </c>
       <c r="G1263" s="7" t="s">
         <v>1031</v>
@@ -83867,7 +83878,7 @@
       </c>
       <c r="J1263" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DEREBAHÇE MAH. YENİ AY SOK. NO:1-13/14 ILKADIM SAMSUN</v>
+        <v>19 MAYIS MAH. 655. CAD. NO:27-29 A - B TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1263" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83875,7 +83886,7 @@
       </c>
       <c r="L1263" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1263" s="3">
         <v>1</v>
@@ -83892,19 +83903,19 @@
     </row>
     <row r="1264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1264" s="6" t="s">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="B1264" s="6" t="s">
-        <v>4204</v>
+        <v>4206</v>
       </c>
       <c r="C1264" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1264" s="6">
-        <v>41.217671899999999</v>
+        <v>41.262782299999998</v>
       </c>
       <c r="E1264" s="6">
-        <v>36.457630899999998</v>
+        <v>36.336356500000001</v>
       </c>
       <c r="G1264" s="7" t="s">
         <v>1031</v>
@@ -83917,7 +83928,7 @@
       </c>
       <c r="J1264" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>19 MAYIS MAH. 655. CAD. NO:27-29 A - B TEKKEKÖY SAMSUN</v>
+        <v>DEREBAHÇE MAH. 634. SOK. NO: 12B-1-16 ILKADIM SAMSUN</v>
       </c>
       <c r="K1264" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83925,7 +83936,7 @@
       </c>
       <c r="L1264" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1264" s="3">
         <v>1</v>
@@ -83942,19 +83953,19 @@
     </row>
     <row r="1265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1265" s="6" t="s">
-        <v>4205</v>
+        <v>4207</v>
       </c>
       <c r="B1265" s="6" t="s">
-        <v>4206</v>
+        <v>4208</v>
       </c>
       <c r="C1265" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1265" s="6">
-        <v>41.262782299999998</v>
+        <v>41.2463774</v>
       </c>
       <c r="E1265" s="6">
-        <v>36.336356500000001</v>
+        <v>36.361473199999999</v>
       </c>
       <c r="G1265" s="7" t="s">
         <v>1031</v>
@@ -83967,7 +83978,7 @@
       </c>
       <c r="J1265" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DEREBAHÇE MAH. 634. SOK. NO: 12B-1-16 ILKADIM SAMSUN</v>
+        <v>TEKNEPINAR MAH. 596. CAD. NO:29/A-1 CANIK SAMSUN CANIK SAMSUN</v>
       </c>
       <c r="K1265" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -83975,7 +83986,7 @@
       </c>
       <c r="L1265" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>CANIK</v>
       </c>
       <c r="M1265" s="3">
         <v>1</v>
@@ -83992,19 +84003,19 @@
     </row>
     <row r="1266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1266" s="6" t="s">
-        <v>4207</v>
+        <v>4209</v>
       </c>
       <c r="B1266" s="6" t="s">
-        <v>4208</v>
+        <v>4210</v>
       </c>
       <c r="C1266" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1266" s="6">
-        <v>41.2463774</v>
+        <v>41.215877499999998</v>
       </c>
       <c r="E1266" s="6">
-        <v>36.361473199999999</v>
+        <v>36.461956100000002</v>
       </c>
       <c r="G1266" s="7" t="s">
         <v>1031</v>
@@ -84017,7 +84028,7 @@
       </c>
       <c r="J1266" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>TEKNEPINAR MAH. 596. CAD. NO:29/A-1 CANIK SAMSUN CANIK SAMSUN</v>
+        <v>19 MAYIS MAH. 669 CAD. NO:18-1A  TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1266" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84025,7 +84036,7 @@
       </c>
       <c r="L1266" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1266" s="3">
         <v>1</v>
@@ -84042,19 +84053,19 @@
     </row>
     <row r="1267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1267" s="6" t="s">
-        <v>4209</v>
+        <v>4211</v>
       </c>
       <c r="B1267" s="6" t="s">
-        <v>4210</v>
+        <v>4212</v>
       </c>
       <c r="C1267" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1267" s="6">
-        <v>41.215877499999998</v>
+        <v>41.265019799999997</v>
       </c>
       <c r="E1267" s="6">
-        <v>36.461956100000002</v>
+        <v>36.379137</v>
       </c>
       <c r="G1267" s="7" t="s">
         <v>1031</v>
@@ -84067,7 +84078,7 @@
       </c>
       <c r="J1267" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>19 MAYIS MAH. 669 CAD. NO:18-1A  TEKKEKÖY SAMSUN</v>
+        <v>TOPTEPE MH. AŞIK VEYSEL CAD. NO:41 CANIK SAMSUN</v>
       </c>
       <c r="K1267" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84075,7 +84086,7 @@
       </c>
       <c r="L1267" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>CANIK</v>
       </c>
       <c r="M1267" s="3">
         <v>1</v>
@@ -84092,19 +84103,19 @@
     </row>
     <row r="1268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1268" s="6" t="s">
-        <v>4211</v>
+        <v>4213</v>
       </c>
       <c r="B1268" s="6" t="s">
-        <v>4212</v>
+        <v>4214</v>
       </c>
       <c r="C1268" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1268" s="6">
-        <v>41.265019799999997</v>
+        <v>41.264067900000001</v>
       </c>
       <c r="E1268" s="6">
-        <v>36.379137</v>
+        <v>36.352019800000001</v>
       </c>
       <c r="G1268" s="7" t="s">
         <v>1031</v>
@@ -84117,7 +84128,7 @@
       </c>
       <c r="J1268" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>TOPTEPE MH. AŞIK VEYSEL CAD. NO:41 CANIK SAMSUN</v>
+        <v>SOĞUKSU MAH ÇALIKUŞU SOK. NO:5/1 CANIK SAMSUN</v>
       </c>
       <c r="K1268" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84142,19 +84153,19 @@
     </row>
     <row r="1269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1269" s="6" t="s">
-        <v>4213</v>
+        <v>4215</v>
       </c>
       <c r="B1269" s="6" t="s">
-        <v>4214</v>
+        <v>4216</v>
       </c>
       <c r="C1269" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1269" s="6">
-        <v>41.264067900000001</v>
+        <v>41.258668</v>
       </c>
       <c r="E1269" s="6">
-        <v>36.352019800000001</v>
+        <v>36.3688942</v>
       </c>
       <c r="G1269" s="7" t="s">
         <v>1031</v>
@@ -84167,7 +84178,7 @@
       </c>
       <c r="J1269" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SOĞUKSU MAH ÇALIKUŞU SOK. NO:5/1 CANIK SAMSUN</v>
+        <v>HASKÖY MAH 170. SK NO:17A-B CANIK SAMSUN</v>
       </c>
       <c r="K1269" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84192,19 +84203,19 @@
     </row>
     <row r="1270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1270" s="6" t="s">
-        <v>4215</v>
+        <v>4217</v>
       </c>
       <c r="B1270" s="6" t="s">
-        <v>4216</v>
+        <v>4218</v>
       </c>
       <c r="C1270" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1270" s="6">
-        <v>41.258668</v>
+        <v>41.220320000000001</v>
       </c>
       <c r="E1270" s="6">
-        <v>36.3688942</v>
+        <v>36.463631999999997</v>
       </c>
       <c r="G1270" s="7" t="s">
         <v>1031</v>
@@ -84217,7 +84228,7 @@
       </c>
       <c r="J1270" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>HASKÖY MAH 170. SK NO:17A-B CANIK SAMSUN</v>
+        <v>19 MAYIS MAH HACI EKİNCİ BULVARI NO:54 TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1270" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84225,7 +84236,7 @@
       </c>
       <c r="L1270" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1270" s="3">
         <v>1</v>
@@ -84242,19 +84253,19 @@
     </row>
     <row r="1271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1271" s="6" t="s">
-        <v>4217</v>
+        <v>4219</v>
       </c>
       <c r="B1271" s="6" t="s">
-        <v>4218</v>
+        <v>4220</v>
       </c>
       <c r="C1271" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1271" s="6">
-        <v>41.220320000000001</v>
+        <v>41.144581100000003</v>
       </c>
       <c r="E1271" s="6">
-        <v>36.463631999999997</v>
+        <v>36.5034706</v>
       </c>
       <c r="G1271" s="7" t="s">
         <v>1031</v>
@@ -84267,7 +84278,7 @@
       </c>
       <c r="J1271" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>19 MAYIS MAH HACI EKİNCİ BULVARI NO:54 TEKKEKÖY SAMSUN</v>
+        <v>BÜYÜKLÜ MAH SAMSUN CAD. NO:126B TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1271" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84292,19 +84303,19 @@
     </row>
     <row r="1272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1272" s="6" t="s">
-        <v>4219</v>
+        <v>4221</v>
       </c>
       <c r="B1272" s="6" t="s">
-        <v>4220</v>
+        <v>4222</v>
       </c>
       <c r="C1272" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1272" s="6">
-        <v>41.144581100000003</v>
+        <v>41.259048900000003</v>
       </c>
       <c r="E1272" s="6">
-        <v>36.5034706</v>
+        <v>36.321103899999997</v>
       </c>
       <c r="G1272" s="7" t="s">
         <v>1031</v>
@@ -84317,7 +84328,7 @@
       </c>
       <c r="J1272" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BÜYÜKLÜ MAH SAMSUN CAD. NO:126B TEKKEKÖY SAMSUN</v>
+        <v>DEREBAHÇE MAH ŞEHİT MUSTAFA ZIVALI BULV. NO:69 ILKADIM SAMSUN</v>
       </c>
       <c r="K1272" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84325,7 +84336,7 @@
       </c>
       <c r="L1272" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1272" s="3">
         <v>1</v>
@@ -84342,19 +84353,19 @@
     </row>
     <row r="1273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1273" s="6" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="B1273" s="6" t="s">
-        <v>4222</v>
+        <v>4224</v>
       </c>
       <c r="C1273" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1273" s="6">
-        <v>41.259048900000003</v>
+        <v>41.269953000000001</v>
       </c>
       <c r="E1273" s="6">
-        <v>36.321103899999997</v>
+        <v>36.371288200000002</v>
       </c>
       <c r="G1273" s="7" t="s">
         <v>1031</v>
@@ -84367,7 +84378,7 @@
       </c>
       <c r="J1273" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DEREBAHÇE MAH ŞEHİT MUSTAFA ZIVALI BULV. NO:69 ILKADIM SAMSUN</v>
+        <v>BELEDİYE EVLERİ MAH MEKİKŞAH SOK. NO:42/2 CANIK SAMSUN</v>
       </c>
       <c r="K1273" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84375,7 +84386,7 @@
       </c>
       <c r="L1273" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>CANIK</v>
       </c>
       <c r="M1273" s="3">
         <v>1</v>
@@ -84392,19 +84403,19 @@
     </row>
     <row r="1274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1274" s="6" t="s">
-        <v>4223</v>
+        <v>4225</v>
       </c>
       <c r="B1274" s="6" t="s">
-        <v>4224</v>
+        <v>4226</v>
       </c>
       <c r="C1274" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1274" s="6">
-        <v>41.269953000000001</v>
+        <v>41.221619099999998</v>
       </c>
       <c r="E1274" s="6">
-        <v>36.371288200000002</v>
+        <v>36.445626900000001</v>
       </c>
       <c r="G1274" s="7" t="s">
         <v>1031</v>
@@ -84417,7 +84428,7 @@
       </c>
       <c r="J1274" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BELEDİYE EVLERİ MAH MEKİKŞAH SOK. NO:42/2 CANIK SAMSUN</v>
+        <v>CUMHURİYET MAH BAKİ ESEN CAD. NO:18BA TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1274" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84425,7 +84436,7 @@
       </c>
       <c r="L1274" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>CANIK</v>
+        <v>TEKKEKÖY</v>
       </c>
       <c r="M1274" s="3">
         <v>1</v>
@@ -84442,19 +84453,19 @@
     </row>
     <row r="1275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1275" s="6" t="s">
-        <v>4225</v>
+        <v>4227</v>
       </c>
       <c r="B1275" s="6" t="s">
-        <v>4226</v>
+        <v>4228</v>
       </c>
       <c r="C1275" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1275" s="6">
-        <v>41.221619099999998</v>
+        <v>41.2395444</v>
       </c>
       <c r="E1275" s="6">
-        <v>36.445626900000001</v>
+        <v>36.4175848</v>
       </c>
       <c r="G1275" s="7" t="s">
         <v>1031</v>
@@ -84467,7 +84478,7 @@
       </c>
       <c r="J1275" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MAH BAKİ ESEN CAD. NO:18BA TEKKEKÖY SAMSUN</v>
+        <v>İSTİKLAL MAH 56 SOK. NO:39 TEKKEKÖY SAMSUN</v>
       </c>
       <c r="K1275" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84492,19 +84503,19 @@
     </row>
     <row r="1276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1276" s="6" t="s">
-        <v>4227</v>
+        <v>4229</v>
       </c>
       <c r="B1276" s="6" t="s">
-        <v>4228</v>
+        <v>4230</v>
       </c>
       <c r="C1276" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1276" s="6">
-        <v>41.2395444</v>
+        <v>41.080125700000004</v>
       </c>
       <c r="E1276" s="6">
-        <v>36.4175848</v>
+        <v>36.825375100000002</v>
       </c>
       <c r="G1276" s="7" t="s">
         <v>1031</v>
@@ -84517,7 +84528,7 @@
       </c>
       <c r="J1276" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>İSTİKLAL MAH 56 SOK. NO:39 TEKKEKÖY SAMSUN</v>
+        <v>Orta Mah. Musa Küçük Kurt Cad. NO:20 SalıpazarI</v>
       </c>
       <c r="K1276" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84525,7 +84536,7 @@
       </c>
       <c r="L1276" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>TEKKEKÖY</v>
+        <v>SALIPAZARI</v>
       </c>
       <c r="M1276" s="3">
         <v>1</v>
@@ -84542,19 +84553,19 @@
     </row>
     <row r="1277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1277" s="6" t="s">
-        <v>4229</v>
+        <v>4231</v>
       </c>
       <c r="B1277" s="6" t="s">
-        <v>4230</v>
+        <v>4232</v>
       </c>
       <c r="C1277" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1277" s="6">
-        <v>41.080125700000004</v>
+        <v>41.202227399999998</v>
       </c>
       <c r="E1277" s="6">
-        <v>36.825375100000002</v>
+        <v>36.732501900000003</v>
       </c>
       <c r="G1277" s="7" t="s">
         <v>1031</v>
@@ -84567,7 +84578,7 @@
       </c>
       <c r="J1277" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>Orta Mah. Musa Küçük Kurt Cad. NO:20 SalıpazarI</v>
+        <v>ORTA MAH. DR. ORHAN ATILGAN CAD. NO:13/A   ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1277" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84575,7 +84586,7 @@
       </c>
       <c r="L1277" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>SALIPAZARI</v>
+        <v>ÇARSAMBA</v>
       </c>
       <c r="M1277" s="3">
         <v>1</v>
@@ -84592,19 +84603,19 @@
     </row>
     <row r="1278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1278" s="6" t="s">
-        <v>4231</v>
+        <v>4233</v>
       </c>
       <c r="B1278" s="6" t="s">
-        <v>4232</v>
+        <v>4234</v>
       </c>
       <c r="C1278" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1278" s="6">
-        <v>41.202227399999998</v>
+        <v>41.204025899999998</v>
       </c>
       <c r="E1278" s="6">
-        <v>36.732501900000003</v>
+        <v>36.716888599999997</v>
       </c>
       <c r="G1278" s="7" t="s">
         <v>1031</v>
@@ -84617,7 +84628,7 @@
       </c>
       <c r="J1278" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ORTA MAH. DR. ORHAN ATILGAN CAD. NO:13/A   ÇARSAMBA SAMSUN</v>
+        <v>SUNGURLU  MAH. YENİ SAMSUN CAD. NO:81/A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1278" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84642,19 +84653,19 @@
     </row>
     <row r="1279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1279" s="6" t="s">
-        <v>4233</v>
+        <v>4235</v>
       </c>
       <c r="B1279" s="6" t="s">
-        <v>4234</v>
+        <v>4236</v>
       </c>
       <c r="C1279" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1279" s="6">
-        <v>41.204025899999998</v>
+        <v>41.199986600000003</v>
       </c>
       <c r="E1279" s="6">
-        <v>36.716888599999997</v>
+        <v>36.722077599999999</v>
       </c>
       <c r="G1279" s="7" t="s">
         <v>1031</v>
@@ -84667,7 +84678,7 @@
       </c>
       <c r="J1279" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SUNGURLU  MAH. YENİ SAMSUN CAD. NO:81/A ÇARSAMBA SAMSUN</v>
+        <v>SARICALI MAH. MESERRET SK. NO:27 ZEMİNKAT ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1279" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84692,19 +84703,19 @@
     </row>
     <row r="1280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1280" s="6" t="s">
-        <v>4235</v>
+        <v>4237</v>
       </c>
       <c r="B1280" s="6" t="s">
-        <v>4236</v>
+        <v>4238</v>
       </c>
       <c r="C1280" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1280" s="6">
-        <v>41.199986600000003</v>
+        <v>41.198939299999999</v>
       </c>
       <c r="E1280" s="6">
-        <v>36.722077599999999</v>
+        <v>36.728381800000001</v>
       </c>
       <c r="G1280" s="7" t="s">
         <v>1031</v>
@@ -84717,7 +84728,7 @@
       </c>
       <c r="J1280" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SARICALI MAH. MESERRET SK. NO:27 ZEMİNKAT ÇARSAMBA SAMSUN</v>
+        <v>ORTA MAH STADYUM CAD. NO:15/A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1280" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84742,19 +84753,19 @@
     </row>
     <row r="1281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1281" s="6" t="s">
-        <v>4237</v>
+        <v>4239</v>
       </c>
       <c r="B1281" s="6" t="s">
-        <v>4238</v>
+        <v>4240</v>
       </c>
       <c r="C1281" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1281" s="6">
-        <v>41.198939299999999</v>
+        <v>41.196594900000001</v>
       </c>
       <c r="E1281" s="6">
-        <v>36.728381800000001</v>
+        <v>36.729289399999999</v>
       </c>
       <c r="G1281" s="7" t="s">
         <v>1031</v>
@@ -84767,7 +84778,7 @@
       </c>
       <c r="J1281" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ORTA MAH STADYUM CAD. NO:15/A ÇARSAMBA SAMSUN</v>
+        <v>ORTA MAH CEMİL ŞENSOY CAD. NO:33/A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1281" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84792,19 +84803,19 @@
     </row>
     <row r="1282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1282" s="6" t="s">
-        <v>4239</v>
+        <v>4241</v>
       </c>
       <c r="B1282" s="6" t="s">
-        <v>4240</v>
+        <v>4242</v>
       </c>
       <c r="C1282" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1282" s="6">
-        <v>41.196594900000001</v>
+        <v>41.197572899999997</v>
       </c>
       <c r="E1282" s="6">
-        <v>36.729289399999999</v>
+        <v>36.733855200000001</v>
       </c>
       <c r="G1282" s="7" t="s">
         <v>1031</v>
@@ -84817,7 +84828,7 @@
       </c>
       <c r="J1282" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ORTA MAH CEMİL ŞENSOY CAD. NO:33/A ÇARSAMBA SAMSUN</v>
+        <v>ORTA MH. SOFUOĞLU CD. NO:2/A A/B2 DÜKKAN</v>
       </c>
       <c r="K1282" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84842,19 +84853,19 @@
     </row>
     <row r="1283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1283" s="6" t="s">
-        <v>4241</v>
+        <v>4243</v>
       </c>
       <c r="B1283" s="6" t="s">
-        <v>4242</v>
+        <v>4244</v>
       </c>
       <c r="C1283" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1283" s="6">
-        <v>41.197572899999997</v>
+        <v>41.194961300000003</v>
       </c>
       <c r="E1283" s="6">
-        <v>36.733855200000001</v>
+        <v>36.719642200000003</v>
       </c>
       <c r="G1283" s="7" t="s">
         <v>1031</v>
@@ -84867,7 +84878,7 @@
       </c>
       <c r="J1283" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ORTA MH. SOFUOĞLU CD. NO:2/A A/B2 DÜKKAN</v>
+        <v>KİRAZLIK ÇAY MH. DEĞİRMENBAŞI CD. NO:77/A ADRES KODU:1357090150</v>
       </c>
       <c r="K1283" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84892,19 +84903,19 @@
     </row>
     <row r="1284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1284" s="6" t="s">
-        <v>4243</v>
+        <v>4245</v>
       </c>
       <c r="B1284" s="6" t="s">
-        <v>4244</v>
+        <v>4246</v>
       </c>
       <c r="C1284" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1284" s="6">
-        <v>41.194961300000003</v>
+        <v>41.187702199999997</v>
       </c>
       <c r="E1284" s="6">
-        <v>36.719642200000003</v>
+        <v>36.717311600000002</v>
       </c>
       <c r="G1284" s="7" t="s">
         <v>1031</v>
@@ -84917,7 +84928,7 @@
       </c>
       <c r="J1284" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KİRAZLIK ÇAY MH. DEĞİRMENBAŞI CD. NO:77/A ADRES KODU:1357090150</v>
+        <v>KİRAZLIK ÇAY MH. DEĞİRMENBAŞI CD. NO:10 ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1284" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84942,19 +84953,19 @@
     </row>
     <row r="1285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1285" s="6" t="s">
-        <v>4245</v>
+        <v>4247</v>
       </c>
       <c r="B1285" s="6" t="s">
-        <v>4246</v>
+        <v>4248</v>
       </c>
       <c r="C1285" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1285" s="6">
-        <v>41.187702199999997</v>
+        <v>40.989691000000001</v>
       </c>
       <c r="E1285" s="6">
-        <v>36.717311600000002</v>
+        <v>36.6323632</v>
       </c>
       <c r="G1285" s="7" t="s">
         <v>1031</v>
@@ -84967,7 +84978,7 @@
       </c>
       <c r="J1285" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KİRAZLIK ÇAY MH. DEĞİRMENBAŞI CD. NO:10 ÇARSAMBA SAMSUN</v>
+        <v>ORHANGAZİ MH. RECEP TAYYİP ERDOĞAN SK. NO:2/Z   AYVACIK SAMSUN</v>
       </c>
       <c r="K1285" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -84975,7 +84986,7 @@
       </c>
       <c r="L1285" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ÇARSAMBA</v>
+        <v>AYVACIK</v>
       </c>
       <c r="M1285" s="3">
         <v>1</v>
@@ -84992,19 +85003,19 @@
     </row>
     <row r="1286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1286" s="6" t="s">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="B1286" s="6" t="s">
-        <v>4248</v>
+        <v>4250</v>
       </c>
       <c r="C1286" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1286" s="6">
-        <v>40.989691000000001</v>
+        <v>41.194349799999998</v>
       </c>
       <c r="E1286" s="6">
-        <v>36.6323632</v>
+        <v>36.7279865</v>
       </c>
       <c r="G1286" s="7" t="s">
         <v>1031</v>
@@ -85017,7 +85028,7 @@
       </c>
       <c r="J1286" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ORHANGAZİ MH. RECEP TAYYİP ERDOĞAN SK. NO:2/Z   AYVACIK SAMSUN</v>
+        <v>ÇAY MH. SÜLEYMAN PAŞA CD. YEŞİLADA APT. NO:12/14-AA-AB ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1286" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85025,7 +85036,7 @@
       </c>
       <c r="L1286" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>AYVACIK</v>
+        <v>ÇARSAMBA</v>
       </c>
       <c r="M1286" s="3">
         <v>1</v>
@@ -85042,19 +85053,19 @@
     </row>
     <row r="1287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1287" s="6" t="s">
-        <v>4249</v>
+        <v>4251</v>
       </c>
       <c r="B1287" s="6" t="s">
-        <v>4250</v>
+        <v>4252</v>
       </c>
       <c r="C1287" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1287" s="6">
-        <v>41.194349799999998</v>
+        <v>41.205815100000002</v>
       </c>
       <c r="E1287" s="6">
-        <v>36.7279865</v>
+        <v>36.694265299999998</v>
       </c>
       <c r="G1287" s="7" t="s">
         <v>1031</v>
@@ -85067,7 +85078,7 @@
       </c>
       <c r="J1287" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇAY MH. SÜLEYMAN PAŞA CD. YEŞİLADA APT. NO:12/14-AA-AB ÇARSAMBA SAMSUN</v>
+        <v>SARICALI MH. YUNUS EMRE CD. NO:257/A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1287" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85092,19 +85103,19 @@
     </row>
     <row r="1288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1288" s="6" t="s">
-        <v>4251</v>
+        <v>4253</v>
       </c>
       <c r="B1288" s="6" t="s">
-        <v>4252</v>
+        <v>4254</v>
       </c>
       <c r="C1288" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1288" s="6">
-        <v>41.205815100000002</v>
+        <v>41.198796199999997</v>
       </c>
       <c r="E1288" s="6">
-        <v>36.694265299999998</v>
+        <v>36.711779200000002</v>
       </c>
       <c r="G1288" s="7" t="s">
         <v>1031</v>
@@ -85117,7 +85128,7 @@
       </c>
       <c r="J1288" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SARICALI MH. YUNUS EMRE CD. NO:257/A ÇARSAMBA SAMSUN</v>
+        <v>SARICALI MAH. YUNUS EMRE CAD. NO:160 A-B ADRES KODU: 5400391255-5225702116 ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1288" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85142,19 +85153,19 @@
     </row>
     <row r="1289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1289" s="6" t="s">
-        <v>4253</v>
+        <v>4255</v>
       </c>
       <c r="B1289" s="6" t="s">
-        <v>4254</v>
+        <v>4256</v>
       </c>
       <c r="C1289" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1289" s="6">
-        <v>41.198796199999997</v>
+        <v>41.204773400000001</v>
       </c>
       <c r="E1289" s="6">
-        <v>36.711779200000002</v>
+        <v>36.722245100000002</v>
       </c>
       <c r="G1289" s="7" t="s">
         <v>1031</v>
@@ -85167,7 +85178,7 @@
       </c>
       <c r="J1289" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SARICALI MAH. YUNUS EMRE CAD. NO:160 A-B ADRES KODU: 5400391255-5225702116 ÇARSAMBA SAMSUN</v>
+        <v>YEŞİLIRMAK MAH. SUNGURLU CAD. NO:59/A ADRES KODU : 1749452718 ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1289" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85192,19 +85203,19 @@
     </row>
     <row r="1290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1290" s="6" t="s">
-        <v>4255</v>
+        <v>4257</v>
       </c>
       <c r="B1290" s="6" t="s">
-        <v>4256</v>
+        <v>4258</v>
       </c>
       <c r="C1290" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1290" s="6">
-        <v>41.204773400000001</v>
+        <v>41.216182600000003</v>
       </c>
       <c r="E1290" s="6">
-        <v>36.722245100000002</v>
+        <v>36.613367599999997</v>
       </c>
       <c r="G1290" s="7" t="s">
         <v>1031</v>
@@ -85217,7 +85228,7 @@
       </c>
       <c r="J1290" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YEŞİLIRMAK MAH. SUNGURLU CAD. NO:59/A ADRES KODU : 1749452718 ÇARSAMBA SAMSUN</v>
+        <v>DİKBIYIK MERKEZ MAH. LİSE CAD. NO:28/D  ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1290" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85242,19 +85253,19 @@
     </row>
     <row r="1291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1291" s="6" t="s">
-        <v>4257</v>
+        <v>4259</v>
       </c>
       <c r="B1291" s="6" t="s">
-        <v>4258</v>
+        <v>4260</v>
       </c>
       <c r="C1291" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1291" s="6">
-        <v>41.216182600000003</v>
+        <v>41.197546699999997</v>
       </c>
       <c r="E1291" s="6">
-        <v>36.613367599999997</v>
+        <v>36.7188078</v>
       </c>
       <c r="G1291" s="7" t="s">
         <v>1031</v>
@@ -85267,7 +85278,7 @@
       </c>
       <c r="J1291" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DİKBIYIK MERKEZ MAH. LİSE CAD. NO:28/D  ÇARSAMBA SAMSUN</v>
+        <v>SARICALI MAH. HASANLI CAD. NO:4A  ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1291" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85292,19 +85303,19 @@
     </row>
     <row r="1292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1292" s="6" t="s">
-        <v>4259</v>
+        <v>4261</v>
       </c>
       <c r="B1292" s="6" t="s">
-        <v>4260</v>
+        <v>4262</v>
       </c>
       <c r="C1292" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1292" s="6">
-        <v>41.197546699999997</v>
+        <v>41.185031700000003</v>
       </c>
       <c r="E1292" s="6">
-        <v>36.7188078</v>
+        <v>36.720023300000001</v>
       </c>
       <c r="G1292" s="7" t="s">
         <v>1031</v>
@@ -85317,7 +85328,7 @@
       </c>
       <c r="J1292" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SARICALI MAH. HASANLI CAD. NO:4A  ÇARSAMBA SAMSUN</v>
+        <v>ÇAY MAH. ŞEHİT UZMAN ONBAŞI RAMAZAN TAŞKIN CD..NO:1A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1292" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85342,19 +85353,19 @@
     </row>
     <row r="1293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1293" s="6" t="s">
-        <v>4261</v>
+        <v>4263</v>
       </c>
       <c r="B1293" s="6" t="s">
-        <v>4262</v>
+        <v>4264</v>
       </c>
       <c r="C1293" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1293" s="6">
-        <v>41.185031700000003</v>
+        <v>41.195730900000001</v>
       </c>
       <c r="E1293" s="6">
-        <v>36.720023300000001</v>
+        <v>36.712902499999998</v>
       </c>
       <c r="G1293" s="7" t="s">
         <v>1031</v>
@@ -85367,7 +85378,7 @@
       </c>
       <c r="J1293" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇAY MAH. ŞEHİT UZMAN ONBAŞI RAMAZAN TAŞKIN CD..NO:1A ÇARSAMBA SAMSUN</v>
+        <v>GAZİ MAH. HASANLI CAD. NO:99  ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1293" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85392,19 +85403,19 @@
     </row>
     <row r="1294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1294" s="6" t="s">
-        <v>4263</v>
+        <v>4265</v>
       </c>
       <c r="B1294" s="6" t="s">
-        <v>4264</v>
+        <v>4266</v>
       </c>
       <c r="C1294" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1294" s="6">
-        <v>41.195730900000001</v>
+        <v>41.199074899999999</v>
       </c>
       <c r="E1294" s="6">
-        <v>36.712902499999998</v>
+        <v>36.718549400000001</v>
       </c>
       <c r="G1294" s="7" t="s">
         <v>1031</v>
@@ -85417,7 +85428,7 @@
       </c>
       <c r="J1294" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GAZİ MAH. HASANLI CAD. NO:99  ÇARSAMBA SAMSUN</v>
+        <v>SARICALI MAH. MUSA PAŞA SOK. NO:3A  ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1294" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85442,19 +85453,19 @@
     </row>
     <row r="1295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1295" s="6" t="s">
-        <v>4265</v>
+        <v>4267</v>
       </c>
       <c r="B1295" s="6" t="s">
-        <v>4266</v>
+        <v>4268</v>
       </c>
       <c r="C1295" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1295" s="6">
-        <v>41.199074899999999</v>
+        <v>41.082645200000002</v>
       </c>
       <c r="E1295" s="6">
-        <v>36.718549400000001</v>
+        <v>36.8240701</v>
       </c>
       <c r="G1295" s="7" t="s">
         <v>1031</v>
@@ -85467,7 +85478,7 @@
       </c>
       <c r="J1295" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SARICALI MAH. MUSA PAŞA SOK. NO:3A  ÇARSAMBA SAMSUN</v>
+        <v>BEREKET MAH. ÇARŞAMBA CAD. NO: 27A-27B SALIPAZARI SAMSUN</v>
       </c>
       <c r="K1295" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85475,7 +85486,7 @@
       </c>
       <c r="L1295" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ÇARSAMBA</v>
+        <v>SALIPAZARI</v>
       </c>
       <c r="M1295" s="3">
         <v>1</v>
@@ -85492,19 +85503,19 @@
     </row>
     <row r="1296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1296" s="6" t="s">
-        <v>4267</v>
+        <v>4269</v>
       </c>
       <c r="B1296" s="6" t="s">
-        <v>4268</v>
+        <v>4270</v>
       </c>
       <c r="C1296" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1296" s="6">
-        <v>41.082645200000002</v>
+        <v>41.199357599999999</v>
       </c>
       <c r="E1296" s="6">
-        <v>36.8240701</v>
+        <v>36.731759699999998</v>
       </c>
       <c r="G1296" s="7" t="s">
         <v>1031</v>
@@ -85517,7 +85528,7 @@
       </c>
       <c r="J1296" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BEREKET MAH. ÇARŞAMBA CAD. NO: 27A-27B SALIPAZARI SAMSUN</v>
+        <v>ORTA MAH TUNCAY KOCABAŞ SOK. NO:40/B ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1296" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85525,7 +85536,7 @@
       </c>
       <c r="L1296" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>SALIPAZARI</v>
+        <v>ÇARSAMBA</v>
       </c>
       <c r="M1296" s="3">
         <v>1</v>
@@ -85542,19 +85553,19 @@
     </row>
     <row r="1297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1297" s="6" t="s">
-        <v>4269</v>
+        <v>4271</v>
       </c>
       <c r="B1297" s="6" t="s">
-        <v>4270</v>
+        <v>4272</v>
       </c>
       <c r="C1297" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1297" s="6">
-        <v>41.199357599999999</v>
+        <v>41.203184</v>
       </c>
       <c r="E1297" s="6">
-        <v>36.731759699999998</v>
+        <v>36.700205400000002</v>
       </c>
       <c r="G1297" s="7" t="s">
         <v>1031</v>
@@ -85567,7 +85578,7 @@
       </c>
       <c r="J1297" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ORTA MAH TUNCAY KOCABAŞ SOK. NO:40/B ÇARSAMBA SAMSUN</v>
+        <v>SARICALI MAH BARAJ YOLU CAD. NO:35A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1297" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85592,19 +85603,19 @@
     </row>
     <row r="1298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1298" s="6" t="s">
-        <v>4271</v>
+        <v>4273</v>
       </c>
       <c r="B1298" s="6" t="s">
-        <v>4272</v>
+        <v>4274</v>
       </c>
       <c r="C1298" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1298" s="6">
-        <v>41.203184</v>
+        <v>41.184051199999999</v>
       </c>
       <c r="E1298" s="6">
-        <v>36.700205400000002</v>
+        <v>36.693464300000002</v>
       </c>
       <c r="G1298" s="7" t="s">
         <v>1031</v>
@@ -85617,7 +85628,7 @@
       </c>
       <c r="J1298" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>SARICALI MAH BARAJ YOLU CAD. NO:35A ÇARSAMBA SAMSUN</v>
+        <v>ÜÇKÖPRÜ MAH YEŞİLBAĞ SK. NO:46/A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1298" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85642,19 +85653,19 @@
     </row>
     <row r="1299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1299" s="6" t="s">
-        <v>4273</v>
+        <v>4275</v>
       </c>
       <c r="B1299" s="6" t="s">
-        <v>4274</v>
+        <v>4276</v>
       </c>
       <c r="C1299" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1299" s="6">
-        <v>41.184051199999999</v>
+        <v>41.1245525</v>
       </c>
       <c r="E1299" s="6">
-        <v>36.693464300000002</v>
+        <v>36.613780400000003</v>
       </c>
       <c r="G1299" s="7" t="s">
         <v>1031</v>
@@ -85667,7 +85678,7 @@
       </c>
       <c r="J1299" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÜÇKÖPRÜ MAH YEŞİLBAĞ SK. NO:46/A ÇARSAMBA SAMSUN</v>
+        <v>YUKARI AĞCAGÜNEY MAH ATATÜRK BULV. NO:20A/B/C/D/E ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1299" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85692,19 +85703,19 @@
     </row>
     <row r="1300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1300" s="6" t="s">
-        <v>4275</v>
+        <v>4277</v>
       </c>
       <c r="B1300" s="6" t="s">
-        <v>4276</v>
+        <v>4278</v>
       </c>
       <c r="C1300" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1300" s="6">
-        <v>41.1245525</v>
+        <v>41.203983000000001</v>
       </c>
       <c r="E1300" s="6">
-        <v>36.613780400000003</v>
+        <v>36.730760799999999</v>
       </c>
       <c r="G1300" s="7" t="s">
         <v>1031</v>
@@ -85717,7 +85728,7 @@
       </c>
       <c r="J1300" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YUKARI AĞCAGÜNEY MAH ATATÜRK BULV. NO:20A/B/C/D/E ÇARSAMBA SAMSUN</v>
+        <v>ORTA MAH BAYRAK SOK. NO:7/A-B - 9/A-B-C ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1300" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85742,19 +85753,19 @@
     </row>
     <row r="1301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1301" s="6" t="s">
-        <v>4277</v>
+        <v>4279</v>
       </c>
       <c r="B1301" s="6" t="s">
-        <v>4278</v>
+        <v>4280</v>
       </c>
       <c r="C1301" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1301" s="6">
-        <v>41.203983000000001</v>
+        <v>41.202141699999999</v>
       </c>
       <c r="E1301" s="6">
-        <v>36.730760799999999</v>
+        <v>36.735210000000002</v>
       </c>
       <c r="G1301" s="7" t="s">
         <v>1031</v>
@@ -85767,7 +85778,7 @@
       </c>
       <c r="J1301" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ORTA MAH BAYRAK SOK. NO:7/A-B - 9/A-B-C ÇARSAMBA SAMSUN</v>
+        <v>HASBAHÇE MAH 254 SOK. NO:6A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1301" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85792,19 +85803,19 @@
     </row>
     <row r="1302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1302" s="6" t="s">
-        <v>4279</v>
+        <v>4281</v>
       </c>
       <c r="B1302" s="6" t="s">
-        <v>4280</v>
+        <v>4282</v>
       </c>
       <c r="C1302" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1302" s="6">
-        <v>41.202141699999999</v>
+        <v>0</v>
       </c>
       <c r="E1302" s="6">
-        <v>36.735210000000002</v>
+        <v>0</v>
       </c>
       <c r="G1302" s="7" t="s">
         <v>1031</v>
@@ -85817,7 +85828,7 @@
       </c>
       <c r="J1302" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>HASBAHÇE MAH 254 SOK. NO:6A ÇARSAMBA SAMSUN</v>
+        <v>ALLI MAH ARIM SOK. NO:18A ÇARSAMBA SAMSUN</v>
       </c>
       <c r="K1302" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85842,19 +85853,19 @@
     </row>
     <row r="1303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1303" s="6" t="s">
-        <v>4281</v>
+        <v>4283</v>
       </c>
       <c r="B1303" s="6" t="s">
-        <v>4282</v>
+        <v>4284</v>
       </c>
       <c r="C1303" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1303" s="6">
-        <v>0</v>
+        <v>41.335323616300002</v>
       </c>
       <c r="E1303" s="6">
-        <v>0</v>
+        <v>36.268748797400001</v>
       </c>
       <c r="G1303" s="7" t="s">
         <v>1031</v>
@@ -85867,7 +85878,7 @@
       </c>
       <c r="J1303" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALLI MAH ARIM SOK. NO:18A ÇARSAMBA SAMSUN</v>
+        <v>CUMHURIYET MAH 23. SOK. NO:12 ATAKUM SAMSUN</v>
       </c>
       <c r="K1303" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85875,7 +85886,7 @@
       </c>
       <c r="L1303" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ÇARSAMBA</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1303" s="3">
         <v>1</v>
@@ -85892,19 +85903,19 @@
     </row>
     <row r="1304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1304" s="6" t="s">
-        <v>4283</v>
+        <v>4285</v>
       </c>
       <c r="B1304" s="6" t="s">
-        <v>4284</v>
+        <v>4286</v>
       </c>
       <c r="C1304" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1304" s="6">
-        <v>41.335323616300002</v>
+        <v>41.332563984399997</v>
       </c>
       <c r="E1304" s="6">
-        <v>36.268748797400001</v>
+        <v>36.278383415900002</v>
       </c>
       <c r="G1304" s="7" t="s">
         <v>1031</v>
@@ -85917,7 +85928,7 @@
       </c>
       <c r="J1304" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURIYET MAH 23. SOK. NO:12 ATAKUM SAMSUN</v>
+        <v>MiMAR SiNAN MAH. 147. SK. NO:3 ATAKUM SAMSUN</v>
       </c>
       <c r="K1304" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85942,19 +85953,19 @@
     </row>
     <row r="1305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1305" s="6" t="s">
-        <v>4285</v>
+        <v>4287</v>
       </c>
       <c r="B1305" s="6" t="s">
-        <v>4286</v>
+        <v>4288</v>
       </c>
       <c r="C1305" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1305" s="6">
-        <v>41.332563984399997</v>
+        <v>41.322004768399999</v>
       </c>
       <c r="E1305" s="6">
-        <v>36.278383415900002</v>
+        <v>36.298694300699999</v>
       </c>
       <c r="G1305" s="7" t="s">
         <v>1031</v>
@@ -85967,7 +85978,7 @@
       </c>
       <c r="J1305" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MiMAR SiNAN MAH. 147. SK. NO:3 ATAKUM SAMSUN</v>
+        <v>ESENEVLER MAH. SEHİT ÜNAL CD. NO:41 ATAKUM SAMSUN</v>
       </c>
       <c r="K1305" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -85992,19 +86003,19 @@
     </row>
     <row r="1306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1306" s="6" t="s">
-        <v>4287</v>
+        <v>4289</v>
       </c>
       <c r="B1306" s="6" t="s">
-        <v>4288</v>
+        <v>4290</v>
       </c>
       <c r="C1306" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1306" s="6">
-        <v>41.322004768399999</v>
+        <v>41.329174385000002</v>
       </c>
       <c r="E1306" s="6">
-        <v>36.298694300699999</v>
+        <v>36.294049923800003</v>
       </c>
       <c r="G1306" s="7" t="s">
         <v>1031</v>
@@ -86017,7 +86028,7 @@
       </c>
       <c r="J1306" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MAH. SEHİT ÜNAL CD. NO:41 ATAKUM SAMSUN</v>
+        <v>ESENEVLER MAH. ATATÜRK BUL. NO:135 / (MERKEZ) ATAKUM SAMSUN</v>
       </c>
       <c r="K1306" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86042,19 +86053,19 @@
     </row>
     <row r="1307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1307" s="6" t="s">
-        <v>4289</v>
+        <v>4291</v>
       </c>
       <c r="B1307" s="6" t="s">
-        <v>4290</v>
+        <v>4292</v>
       </c>
       <c r="C1307" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1307" s="6">
-        <v>41.329174385000002</v>
+        <v>41.336326100000001</v>
       </c>
       <c r="E1307" s="6">
-        <v>36.294049923800003</v>
+        <v>36.252553200000001</v>
       </c>
       <c r="G1307" s="7" t="s">
         <v>1031</v>
@@ -86067,7 +86078,7 @@
       </c>
       <c r="J1307" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MAH. ATATÜRK BUL. NO:135 / (MERKEZ) ATAKUM SAMSUN</v>
+        <v>YENİ MH. ATAKENT BULV. NO:16 22/B ATAKUM SAMSUN</v>
       </c>
       <c r="K1307" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86092,19 +86103,19 @@
     </row>
     <row r="1308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1308" s="6" t="s">
-        <v>4291</v>
+        <v>4293</v>
       </c>
       <c r="B1308" s="6" t="s">
-        <v>4292</v>
+        <v>4294</v>
       </c>
       <c r="C1308" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1308" s="6">
-        <v>41.336326100000001</v>
+        <v>41.310114079000002</v>
       </c>
       <c r="E1308" s="6">
-        <v>36.252553200000001</v>
+        <v>36.3153166743</v>
       </c>
       <c r="G1308" s="7" t="s">
         <v>1031</v>
@@ -86117,7 +86128,7 @@
       </c>
       <c r="J1308" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MH. ATAKENT BULV. NO:16 22/B ATAKUM SAMSUN</v>
+        <v>KARASAMSUN MAH 617 SOK. NO:5/C ILKADIM SAMSUN</v>
       </c>
       <c r="K1308" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86125,7 +86136,7 @@
       </c>
       <c r="L1308" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1308" s="3">
         <v>1</v>
@@ -86142,19 +86153,19 @@
     </row>
     <row r="1309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1309" s="6" t="s">
-        <v>4293</v>
+        <v>4295</v>
       </c>
       <c r="B1309" s="6" t="s">
-        <v>4294</v>
+        <v>4296</v>
       </c>
       <c r="C1309" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1309" s="6">
-        <v>41.310114079000002</v>
+        <v>41.325162970500003</v>
       </c>
       <c r="E1309" s="6">
-        <v>36.3153166743</v>
+        <v>36.286368258300001</v>
       </c>
       <c r="G1309" s="7" t="s">
         <v>1031</v>
@@ -86167,7 +86178,7 @@
       </c>
       <c r="J1309" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KARASAMSUN MAH 617 SOK. NO:5/C ILKADIM SAMSUN</v>
+        <v>ESENEVLER MAH CAĞALOĞLU CAD. NO:17/1 ATAKUM SAMSUN</v>
       </c>
       <c r="K1309" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86175,7 +86186,7 @@
       </c>
       <c r="L1309" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1309" s="3">
         <v>1</v>
@@ -86192,19 +86203,19 @@
     </row>
     <row r="1310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1310" s="6" t="s">
-        <v>4295</v>
+        <v>4297</v>
       </c>
       <c r="B1310" s="6" t="s">
-        <v>4296</v>
+        <v>4298</v>
       </c>
       <c r="C1310" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1310" s="6">
-        <v>41.325162970500003</v>
+        <v>41.342592699999997</v>
       </c>
       <c r="E1310" s="6">
-        <v>36.286368258300001</v>
+        <v>36.242084300000002</v>
       </c>
       <c r="G1310" s="7" t="s">
         <v>1031</v>
@@ -86217,7 +86228,7 @@
       </c>
       <c r="J1310" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MAH CAĞALOĞLU CAD. NO:17/1 ATAKUM SAMSUN</v>
+        <v>YENİMAHALLE MAH. ATAKENT BULVARI BUL. NO:94-96/1 ATAKUM SAMSUN</v>
       </c>
       <c r="K1310" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86242,19 +86253,19 @@
     </row>
     <row r="1311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1311" s="6" t="s">
-        <v>4297</v>
+        <v>4299</v>
       </c>
       <c r="B1311" s="6" t="s">
-        <v>4298</v>
+        <v>4300</v>
       </c>
       <c r="C1311" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1311" s="6">
-        <v>41.342592699999997</v>
+        <v>41.326153614699997</v>
       </c>
       <c r="E1311" s="6">
-        <v>36.242084300000002</v>
+        <v>36.275330908800001</v>
       </c>
       <c r="G1311" s="7" t="s">
         <v>1031</v>
@@ -86267,7 +86278,7 @@
       </c>
       <c r="J1311" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİMAHALLE MAH. ATAKENT BULVARI BUL. NO:94-96/1 ATAKUM SAMSUN</v>
+        <v>MİMARSİNAN MAH ABDULLAH GÜL BULV. NO:68/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1311" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86292,19 +86303,19 @@
     </row>
     <row r="1312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1312" s="6" t="s">
-        <v>4299</v>
+        <v>4301</v>
       </c>
       <c r="B1312" s="6" t="s">
-        <v>4300</v>
+        <v>4302</v>
       </c>
       <c r="C1312" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1312" s="6">
-        <v>41.326153614699997</v>
+        <v>41.334976254499999</v>
       </c>
       <c r="E1312" s="6">
-        <v>36.275330908800001</v>
+        <v>36.258936720900003</v>
       </c>
       <c r="G1312" s="7" t="s">
         <v>1031</v>
@@ -86317,7 +86328,7 @@
       </c>
       <c r="J1312" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MİMARSİNAN MAH ABDULLAH GÜL BULV. NO:68/A ATAKUM SAMSUN</v>
+        <v>CUMHURİYET MAH. AZERBEYCAN CAD. NO:92/2 ATAKUM SAMSUN</v>
       </c>
       <c r="K1312" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86342,19 +86353,19 @@
     </row>
     <row r="1313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1313" s="6" t="s">
-        <v>4301</v>
+        <v>4303</v>
       </c>
       <c r="B1313" s="6" t="s">
-        <v>4302</v>
+        <v>4304</v>
       </c>
       <c r="C1313" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1313" s="6">
-        <v>41.334976254499999</v>
+        <v>41.294712859800001</v>
       </c>
       <c r="E1313" s="6">
-        <v>36.258936720900003</v>
+        <v>36.2875368415</v>
       </c>
       <c r="G1313" s="7" t="s">
         <v>1031</v>
@@ -86367,7 +86378,7 @@
       </c>
       <c r="J1313" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MAH. AZERBEYCAN CAD. NO:92/2 ATAKUM SAMSUN</v>
+        <v>DERECİK MAH CUMHURİYET CAD. NO:38/1 ILKADIM SAMSUN</v>
       </c>
       <c r="K1313" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86375,7 +86386,7 @@
       </c>
       <c r="L1313" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1313" s="3">
         <v>1</v>
@@ -86392,19 +86403,19 @@
     </row>
     <row r="1314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1314" s="6" t="s">
-        <v>4303</v>
+        <v>4305</v>
       </c>
       <c r="B1314" s="6" t="s">
-        <v>4304</v>
+        <v>4306</v>
       </c>
       <c r="C1314" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1314" s="6">
-        <v>41.294712859800001</v>
+        <v>41.312764742799999</v>
       </c>
       <c r="E1314" s="6">
-        <v>36.2875368415</v>
+        <v>36.3143604447</v>
       </c>
       <c r="G1314" s="7" t="s">
         <v>1031</v>
@@ -86417,7 +86428,7 @@
       </c>
       <c r="J1314" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DERECİK MAH CUMHURİYET CAD. NO:38/1 ILKADIM SAMSUN</v>
+        <v>KALKANCI MAH.293.SK.NO:1B/1 ILKADIM SAMSUN</v>
       </c>
       <c r="K1314" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86442,19 +86453,19 @@
     </row>
     <row r="1315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1315" s="6" t="s">
-        <v>4305</v>
+        <v>4307</v>
       </c>
       <c r="B1315" s="6" t="s">
-        <v>4306</v>
+        <v>4308</v>
       </c>
       <c r="C1315" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1315" s="6">
-        <v>41.312764742799999</v>
+        <v>41.329495100000003</v>
       </c>
       <c r="E1315" s="6">
-        <v>36.3143604447</v>
+        <v>36.283510700000001</v>
       </c>
       <c r="G1315" s="7" t="s">
         <v>1031</v>
@@ -86467,7 +86478,7 @@
       </c>
       <c r="J1315" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KALKANCI MAH.293.SK.NO:1B/1 ILKADIM SAMSUN</v>
+        <v>MİMARSİNAN MAH 119. SOK. NO:1 ATAKUM SAMSUN</v>
       </c>
       <c r="K1315" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86475,7 +86486,7 @@
       </c>
       <c r="L1315" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1315" s="3">
         <v>1</v>
@@ -86492,19 +86503,19 @@
     </row>
     <row r="1316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1316" s="6" t="s">
-        <v>4307</v>
+        <v>4309</v>
       </c>
       <c r="B1316" s="6" t="s">
-        <v>4308</v>
+        <v>4310</v>
       </c>
       <c r="C1316" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1316" s="6">
-        <v>41.329495100000003</v>
+        <v>41.326361536699999</v>
       </c>
       <c r="E1316" s="6">
-        <v>36.283510700000001</v>
+        <v>36.302468883499998</v>
       </c>
       <c r="G1316" s="7" t="s">
         <v>1031</v>
@@ -86517,7 +86528,7 @@
       </c>
       <c r="J1316" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MİMARSİNAN MAH 119. SOK. NO:1 ATAKUM SAMSUN</v>
+        <v>DENİZEVLERİ MAH 219. SOK. NO:3/3 ATAKUM SAMSUN</v>
       </c>
       <c r="K1316" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86542,19 +86553,19 @@
     </row>
     <row r="1317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1317" s="6" t="s">
-        <v>4309</v>
+        <v>4311</v>
       </c>
       <c r="B1317" s="6" t="s">
-        <v>4310</v>
+        <v>4312</v>
       </c>
       <c r="C1317" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1317" s="6">
-        <v>41.326361536699999</v>
+        <v>41.345808400000003</v>
       </c>
       <c r="E1317" s="6">
-        <v>36.302468883499998</v>
+        <v>36.248025300000002</v>
       </c>
       <c r="G1317" s="7" t="s">
         <v>1031</v>
@@ -86567,7 +86578,7 @@
       </c>
       <c r="J1317" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DENİZEVLERİ MAH 219. SOK. NO:3/3 ATAKUM SAMSUN</v>
+        <v>GÜZELYALI MAH ATATÜRK BULV. NO:61 ATAKUM SAMSUN</v>
       </c>
       <c r="K1317" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86592,19 +86603,19 @@
     </row>
     <row r="1318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1318" s="6" t="s">
-        <v>4311</v>
+        <v>4313</v>
       </c>
       <c r="B1318" s="6" t="s">
-        <v>4312</v>
+        <v>4314</v>
       </c>
       <c r="C1318" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1318" s="6">
-        <v>41.345808400000003</v>
+        <v>41.340161671200001</v>
       </c>
       <c r="E1318" s="6">
-        <v>36.248025300000002</v>
+        <v>36.2609068951</v>
       </c>
       <c r="G1318" s="7" t="s">
         <v>1031</v>
@@ -86617,7 +86628,7 @@
       </c>
       <c r="J1318" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>GÜZELYALI MAH ATATÜRK BULV. NO:61 ATAKUM SAMSUN</v>
+        <v>CUMHURIYET MAH. KANDILLI CAD. NO:22 SAMSUN(MERKEZ) SAMSUN</v>
       </c>
       <c r="K1318" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86625,7 +86636,7 @@
       </c>
       <c r="L1318" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>SAMSUN(MERKEZ)</v>
       </c>
       <c r="M1318" s="3">
         <v>1</v>
@@ -86642,19 +86653,19 @@
     </row>
     <row r="1319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1319" s="6" t="s">
-        <v>4313</v>
+        <v>4315</v>
       </c>
       <c r="B1319" s="6" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="C1319" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1319" s="6">
-        <v>41.340161671200001</v>
+        <v>41.333607349700003</v>
       </c>
       <c r="E1319" s="6">
-        <v>36.2609068951</v>
+        <v>36.264934842000002</v>
       </c>
       <c r="G1319" s="7" t="s">
         <v>1031</v>
@@ -86667,7 +86678,7 @@
       </c>
       <c r="J1319" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURIYET MAH. KANDILLI CAD. NO:22 SAMSUN(MERKEZ) SAMSUN</v>
+        <v>CUMHURIYET MAH. ARMONI SOK. NO:2 ATAKUM SAMSUN</v>
       </c>
       <c r="K1319" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86675,7 +86686,7 @@
       </c>
       <c r="L1319" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>SAMSUN(MERKEZ)</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1319" s="3">
         <v>1</v>
@@ -86692,19 +86703,19 @@
     </row>
     <row r="1320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1320" s="6" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="B1320" s="6" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
       <c r="C1320" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1320" s="6">
-        <v>41.333607349700003</v>
+        <v>41.327194800000001</v>
       </c>
       <c r="E1320" s="6">
-        <v>36.264934842000002</v>
+        <v>36.268920799999997</v>
       </c>
       <c r="G1320" s="7" t="s">
         <v>1031</v>
@@ -86717,7 +86728,7 @@
       </c>
       <c r="J1320" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURIYET MAH. ARMONI SOK. NO:2 ATAKUM SAMSUN</v>
+        <v>MEVLANA MAH. 737. SK. NO:12 SAMSUN(MERKEZ) SAMSUN</v>
       </c>
       <c r="K1320" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86725,7 +86736,7 @@
       </c>
       <c r="L1320" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>SAMSUN(MERKEZ)</v>
       </c>
       <c r="M1320" s="3">
         <v>1</v>
@@ -86742,19 +86753,19 @@
     </row>
     <row r="1321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1321" s="6" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="B1321" s="6" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="C1321" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1321" s="6">
-        <v>41.327194800000001</v>
+        <v>41.332921176299998</v>
       </c>
       <c r="E1321" s="6">
-        <v>36.268920799999997</v>
+        <v>36.259327400499998</v>
       </c>
       <c r="G1321" s="7" t="s">
         <v>1031</v>
@@ -86767,7 +86778,7 @@
       </c>
       <c r="J1321" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MEVLANA MAH. 737. SK. NO:12 SAMSUN(MERKEZ) SAMSUN</v>
+        <v>CUMHURİYET MH. ABULLAH GÜL BULVARI C BLOK NO:162/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1321" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86775,7 +86786,7 @@
       </c>
       <c r="L1321" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>SAMSUN(MERKEZ)</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1321" s="3">
         <v>1</v>
@@ -86792,19 +86803,19 @@
     </row>
     <row r="1322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1322" s="6" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
       <c r="B1322" s="6" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="C1322" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1322" s="6">
-        <v>41.332921176299998</v>
+        <v>41.335758116900003</v>
       </c>
       <c r="E1322" s="6">
-        <v>36.259327400499998</v>
+        <v>36.261166254999999</v>
       </c>
       <c r="G1322" s="7" t="s">
         <v>1031</v>
@@ -86817,7 +86828,7 @@
       </c>
       <c r="J1322" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MH. ABULLAH GÜL BULVARI C BLOK NO:162/A ATAKUM SAMSUN</v>
+        <v>CUMHURİYET MH. 49. SK. B BLOK APT NO:18 ATAKUM SAMSUN</v>
       </c>
       <c r="K1322" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86842,19 +86853,19 @@
     </row>
     <row r="1323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1323" s="6" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
       <c r="B1323" s="6" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
       <c r="C1323" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1323" s="6">
-        <v>41.335758116900003</v>
+        <v>41.3433347</v>
       </c>
       <c r="E1323" s="6">
-        <v>36.261166254999999</v>
+        <v>36.235204500000002</v>
       </c>
       <c r="G1323" s="7" t="s">
         <v>1031</v>
@@ -86867,7 +86878,7 @@
       </c>
       <c r="J1323" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MH. 49. SK. B BLOK APT NO:18 ATAKUM SAMSUN</v>
+        <v>YENİMAHALLE MH. ATAKENT BUL. NO:144/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1323" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86892,19 +86903,19 @@
     </row>
     <row r="1324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1324" s="6" t="s">
-        <v>4323</v>
+        <v>4325</v>
       </c>
       <c r="B1324" s="6" t="s">
-        <v>4324</v>
+        <v>4326</v>
       </c>
       <c r="C1324" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1324" s="6">
-        <v>41.3433347</v>
+        <v>41.2876093</v>
       </c>
       <c r="E1324" s="6">
-        <v>36.235204500000002</v>
+        <v>36.310081599999997</v>
       </c>
       <c r="G1324" s="7" t="s">
         <v>1031</v>
@@ -86917,7 +86928,7 @@
       </c>
       <c r="J1324" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİMAHALLE MH. ATAKENT BUL. NO:144/A ATAKUM SAMSUN</v>
+        <v>ÇATALARMUT MAH. 179. SOK. 2-A/1 ILKADIM SAMSUN</v>
       </c>
       <c r="K1324" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86925,7 +86936,7 @@
       </c>
       <c r="L1324" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1324" s="3">
         <v>1</v>
@@ -86942,19 +86953,19 @@
     </row>
     <row r="1325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1325" s="6" t="s">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="B1325" s="6" t="s">
-        <v>4326</v>
+        <v>4328</v>
       </c>
       <c r="C1325" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1325" s="6">
-        <v>41.2876093</v>
+        <v>41.324025837100002</v>
       </c>
       <c r="E1325" s="6">
-        <v>36.310081599999997</v>
+        <v>36.299750727999999</v>
       </c>
       <c r="G1325" s="7" t="s">
         <v>1031</v>
@@ -86967,7 +86978,7 @@
       </c>
       <c r="J1325" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇATALARMUT MAH. 179. SOK. 2-A/1 ILKADIM SAMSUN</v>
+        <v>ESENEVLER MH. 392 SK. NO:5-A ADRES KODU:2806340150 ALAÇAM SAMSUN</v>
       </c>
       <c r="K1325" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -86975,7 +86986,7 @@
       </c>
       <c r="L1325" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ALAÇAM</v>
       </c>
       <c r="M1325" s="3">
         <v>1</v>
@@ -86992,19 +87003,19 @@
     </row>
     <row r="1326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1326" s="6" t="s">
-        <v>4327</v>
+        <v>4329</v>
       </c>
       <c r="B1326" s="6" t="s">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="C1326" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1326" s="6">
-        <v>41.324025837100002</v>
+        <v>41.319049300000003</v>
       </c>
       <c r="E1326" s="6">
-        <v>36.299750727999999</v>
+        <v>36.281178799999999</v>
       </c>
       <c r="G1326" s="7" t="s">
         <v>1031</v>
@@ -87017,7 +87028,7 @@
       </c>
       <c r="J1326" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MH. 392 SK. NO:5-A ADRES KODU:2806340150 ALAÇAM SAMSUN</v>
+        <v>KÜÇÜKKOLPINAR MAH NİŞANTAŞI CD. NO:75/C ATAKUM SAMSUN</v>
       </c>
       <c r="K1326" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87025,7 +87036,7 @@
       </c>
       <c r="L1326" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ALAÇAM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1326" s="3">
         <v>1</v>
@@ -87042,19 +87053,19 @@
     </row>
     <row r="1327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1327" s="6" t="s">
-        <v>4329</v>
+        <v>4331</v>
       </c>
       <c r="B1327" s="6" t="s">
-        <v>4330</v>
+        <v>4332</v>
       </c>
       <c r="C1327" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1327" s="6">
-        <v>41.319049300000003</v>
+        <v>41.350439199999997</v>
       </c>
       <c r="E1327" s="6">
-        <v>36.281178799999999</v>
+        <v>36.235306399999999</v>
       </c>
       <c r="G1327" s="7" t="s">
         <v>1031</v>
@@ -87067,7 +87078,7 @@
       </c>
       <c r="J1327" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KÜÇÜKKOLPINAR MAH NİŞANTAŞI CD. NO:75/C ATAKUM SAMSUN</v>
+        <v>YENİ MH. VATAN CD. NO:34/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1327" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87092,19 +87103,19 @@
     </row>
     <row r="1328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1328" s="6" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="B1328" s="6" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="C1328" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1328" s="6">
-        <v>41.350439199999997</v>
+        <v>41.329646240999999</v>
       </c>
       <c r="E1328" s="6">
-        <v>36.235306399999999</v>
+        <v>36.268388573099998</v>
       </c>
       <c r="G1328" s="7" t="s">
         <v>1031</v>
@@ -87117,7 +87128,7 @@
       </c>
       <c r="J1328" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MH. VATAN CD. NO:34/A ATAKUM SAMSUN</v>
+        <v>CUMHURİYET MH. 99.SK. NO:3/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1328" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87142,19 +87153,19 @@
     </row>
     <row r="1329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1329" s="6" t="s">
-        <v>4333</v>
+        <v>4335</v>
       </c>
       <c r="B1329" s="6" t="s">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="C1329" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1329" s="6">
-        <v>41.329646240999999</v>
+        <v>41.3216866928</v>
       </c>
       <c r="E1329" s="6">
-        <v>36.268388573099998</v>
+        <v>36.289427243600002</v>
       </c>
       <c r="G1329" s="7" t="s">
         <v>1031</v>
@@ -87167,7 +87178,7 @@
       </c>
       <c r="J1329" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MH. 99.SK. NO:3/A ATAKUM SAMSUN</v>
+        <v>ESENEVLER MH. 365. SK. NO:27 / A ATAKUM SAMSUN</v>
       </c>
       <c r="K1329" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87192,19 +87203,19 @@
     </row>
     <row r="1330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1330" s="6" t="s">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="B1330" s="6" t="s">
-        <v>4336</v>
+        <v>4338</v>
       </c>
       <c r="C1330" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1330" s="6">
-        <v>41.3216866928</v>
+        <v>41.289360600000002</v>
       </c>
       <c r="E1330" s="6">
-        <v>36.289427243600002</v>
+        <v>36.309483299999997</v>
       </c>
       <c r="G1330" s="7" t="s">
         <v>1031</v>
@@ -87217,7 +87228,7 @@
       </c>
       <c r="J1330" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MH. 365. SK. NO:27 / A ATAKUM SAMSUN</v>
+        <v>ESENEVLER MH. 365. SK. NO:27  A ATAKUM ÇATALARMUT MH.. 30 AĞUSTOS CD. NO:209  ILKADIM SAMSUN</v>
       </c>
       <c r="K1330" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87225,7 +87236,7 @@
       </c>
       <c r="L1330" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1330" s="3">
         <v>1</v>
@@ -87242,19 +87253,19 @@
     </row>
     <row r="1331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1331" s="6" t="s">
-        <v>4337</v>
+        <v>4339</v>
       </c>
       <c r="B1331" s="6" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="C1331" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1331" s="6">
-        <v>41.289360600000002</v>
+        <v>41.337677499999998</v>
       </c>
       <c r="E1331" s="6">
-        <v>36.309483299999997</v>
+        <v>36.241776299999998</v>
       </c>
       <c r="G1331" s="7" t="s">
         <v>1031</v>
@@ -87267,7 +87278,7 @@
       </c>
       <c r="J1331" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MH. 365. SK. NO:27  A ATAKUM ÇATALARMUT MH.. 30 AĞUSTOS CD. NO:209  ILKADIM SAMSUN</v>
+        <v>YENİ MAH. 3417. CAD. NO:63 / A-B ADRES KODU: 3500220268 -1595582337 ATAKUM SAMSUN</v>
       </c>
       <c r="K1331" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87275,7 +87286,7 @@
       </c>
       <c r="L1331" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1331" s="3">
         <v>1</v>
@@ -87292,19 +87303,19 @@
     </row>
     <row r="1332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1332" s="6" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
       <c r="B1332" s="6" t="s">
-        <v>4340</v>
+        <v>4342</v>
       </c>
       <c r="C1332" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1332" s="6">
-        <v>41.337677499999998</v>
+        <v>41.330373700000003</v>
       </c>
       <c r="E1332" s="6">
-        <v>36.241776299999998</v>
+        <v>36.244421099999997</v>
       </c>
       <c r="G1332" s="7" t="s">
         <v>1031</v>
@@ -87317,7 +87328,7 @@
       </c>
       <c r="J1332" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MAH. 3417. CAD. NO:63 / A-B ADRES KODU: 3500220268 -1595582337 ATAKUM SAMSUN</v>
+        <v>ATATEPE MAH. 3510 SOK. NO:2A-B ADRES KODU: 1435982192 / 3202027011 ATAKUM SAMSUN</v>
       </c>
       <c r="K1332" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87342,19 +87353,19 @@
     </row>
     <row r="1333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1333" s="6" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="B1333" s="6" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="C1333" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1333" s="6">
-        <v>41.330373700000003</v>
+        <v>41.3377631591</v>
       </c>
       <c r="E1333" s="6">
-        <v>36.244421099999997</v>
+        <v>36.265924942600002</v>
       </c>
       <c r="G1333" s="7" t="s">
         <v>1031</v>
@@ -87367,7 +87378,7 @@
       </c>
       <c r="J1333" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ATATEPE MAH. 3510 SOK. NO:2A-B ADRES KODU: 1435982192 / 3202027011 ATAKUM SAMSUN</v>
+        <v>CUMHURİYET MAH. 44. SOK. NO:4A ADRES KODU:1959167907 ATAKUM SAMSUN</v>
       </c>
       <c r="K1333" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87392,19 +87403,19 @@
     </row>
     <row r="1334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1334" s="6" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="B1334" s="6" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
       <c r="C1334" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1334" s="6">
-        <v>41.3377631591</v>
+        <v>41.315491700000003</v>
       </c>
       <c r="E1334" s="6">
-        <v>36.265924942600002</v>
+        <v>36.3200383</v>
       </c>
       <c r="G1334" s="7" t="s">
         <v>1031</v>
@@ -87417,7 +87428,7 @@
       </c>
       <c r="J1334" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MAH. 44. SOK. NO:4A ADRES KODU:1959167907 ATAKUM SAMSUN</v>
+        <v>BARUTHANE MAH. SORGUN SOK. NO:6 C BLOK 1-2-3 ADRES KODU:2756234700 - 2755934714 - 2755634728 ILKADIM SAMSUN</v>
       </c>
       <c r="K1334" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87425,7 +87436,7 @@
       </c>
       <c r="L1334" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1334" s="3">
         <v>1</v>
@@ -87442,19 +87453,19 @@
     </row>
     <row r="1335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1335" s="6" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="B1335" s="6" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="C1335" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1335" s="6">
-        <v>41.315491700000003</v>
+        <v>41.331910821599998</v>
       </c>
       <c r="E1335" s="6">
-        <v>36.3200383</v>
+        <v>36.267889766099998</v>
       </c>
       <c r="G1335" s="7" t="s">
         <v>1031</v>
@@ -87467,7 +87478,7 @@
       </c>
       <c r="J1335" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BARUTHANE MAH. SORGUN SOK. NO:6 C BLOK 1-2-3 ADRES KODU:2756234700 - 2755934714 - 2755634728 ILKADIM SAMSUN</v>
+        <v>CUMHURİYET MAH. AZERBEYCAN CAD.NO: 20B 5383294344 ATAKUM SAMSUN</v>
       </c>
       <c r="K1335" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87475,7 +87486,7 @@
       </c>
       <c r="L1335" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1335" s="3">
         <v>1</v>
@@ -87492,19 +87503,19 @@
     </row>
     <row r="1336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1336" s="6" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="B1336" s="6" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="C1336" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1336" s="6">
-        <v>41.331910821599998</v>
+        <v>41.322429999999997</v>
       </c>
       <c r="E1336" s="6">
-        <v>36.267889766099998</v>
+        <v>36.273001700000002</v>
       </c>
       <c r="G1336" s="7" t="s">
         <v>1031</v>
@@ -87517,7 +87528,7 @@
       </c>
       <c r="J1336" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MAH. AZERBEYCAN CAD.NO: 20B 5383294344 ATAKUM SAMSUN</v>
+        <v>MEVLANA MAH. BORNOVA CAD. NO:144AADRES KODU:5125247246 ATAKUM SAMSUN</v>
       </c>
       <c r="K1336" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87542,19 +87553,19 @@
     </row>
     <row r="1337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1337" s="6" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="B1337" s="6" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
       <c r="C1337" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1337" s="6">
-        <v>41.322429999999997</v>
+        <v>41.341569700000001</v>
       </c>
       <c r="E1337" s="6">
-        <v>36.273001700000002</v>
+        <v>36.239076599999997</v>
       </c>
       <c r="G1337" s="7" t="s">
         <v>1031</v>
@@ -87567,7 +87578,7 @@
       </c>
       <c r="J1337" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>MEVLANA MAH. BORNOVA CAD. NO:144AADRES KODU:5125247246 ATAKUM SAMSUN</v>
+        <v>YENİ MAHALLE MAH. 3417 CAD.NO:88 A ATAKUM SAMSUN</v>
       </c>
       <c r="K1337" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87592,19 +87603,19 @@
     </row>
     <row r="1338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1338" s="6" t="s">
-        <v>4351</v>
+        <v>4353</v>
       </c>
       <c r="B1338" s="6" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
       <c r="C1338" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1338" s="6">
-        <v>41.341569700000001</v>
+        <v>41.322396599999998</v>
       </c>
       <c r="E1338" s="6">
-        <v>36.239076599999997</v>
+        <v>36.268679800000001</v>
       </c>
       <c r="G1338" s="7" t="s">
         <v>1031</v>
@@ -87617,7 +87628,7 @@
       </c>
       <c r="J1338" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MAHALLE MAH. 3417 CAD.NO:88 A ATAKUM SAMSUN</v>
+        <v>İSTİKLAL MAH. ALPARSLAN BULVARI NO:120/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1338" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87642,19 +87653,19 @@
     </row>
     <row r="1339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1339" s="6" t="s">
-        <v>4353</v>
+        <v>4355</v>
       </c>
       <c r="B1339" s="6" t="s">
-        <v>4354</v>
+        <v>4356</v>
       </c>
       <c r="C1339" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1339" s="6">
-        <v>41.322396599999998</v>
+        <v>41.308491134100002</v>
       </c>
       <c r="E1339" s="6">
-        <v>36.268679800000001</v>
+        <v>36.317270335400003</v>
       </c>
       <c r="G1339" s="7" t="s">
         <v>1031</v>
@@ -87667,7 +87678,7 @@
       </c>
       <c r="J1339" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>İSTİKLAL MAH. ALPARSLAN BULVARI NO:120/A ATAKUM SAMSUN</v>
+        <v>KARA MAH. MARMARİS SOK. NO:1A ILKADIM SAMSUN</v>
       </c>
       <c r="K1339" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87675,7 +87686,7 @@
       </c>
       <c r="L1339" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1339" s="3">
         <v>1</v>
@@ -87692,19 +87703,19 @@
     </row>
     <row r="1340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1340" s="6" t="s">
-        <v>4355</v>
+        <v>4357</v>
       </c>
       <c r="B1340" s="6" t="s">
-        <v>4356</v>
+        <v>4358</v>
       </c>
       <c r="C1340" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1340" s="6">
-        <v>41.308491134100002</v>
+        <v>41.311675399999999</v>
       </c>
       <c r="E1340" s="6">
-        <v>36.317270335400003</v>
+        <v>36.278434300000001</v>
       </c>
       <c r="G1340" s="7" t="s">
         <v>1031</v>
@@ -87717,7 +87728,7 @@
       </c>
       <c r="J1340" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KARA MAH. MARMARİS SOK. NO:1A ILKADIM SAMSUN</v>
+        <v>BÜYÜKKOLPINAR MAH. ALAÇAM CAD. NO:161 C ATAKUM SAMSUN</v>
       </c>
       <c r="K1340" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87725,7 +87736,7 @@
       </c>
       <c r="L1340" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1340" s="3">
         <v>1</v>
@@ -87742,19 +87753,19 @@
     </row>
     <row r="1341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1341" s="6" t="s">
-        <v>4357</v>
+        <v>4359</v>
       </c>
       <c r="B1341" s="6" t="s">
-        <v>4358</v>
+        <v>4360</v>
       </c>
       <c r="C1341" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1341" s="6">
-        <v>41.311675399999999</v>
+        <v>41.325832699999999</v>
       </c>
       <c r="E1341" s="6">
-        <v>36.278434300000001</v>
+        <v>36.264028600000003</v>
       </c>
       <c r="G1341" s="7" t="s">
         <v>1031</v>
@@ -87767,7 +87778,7 @@
       </c>
       <c r="J1341" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BÜYÜKKOLPINAR MAH. ALAÇAM CAD. NO:161 C ATAKUM SAMSUN</v>
+        <v>İSTİKLAL MAH. 865. SOK. ŞENTÜRK APART. B BLOK NO:12A ATAKUM SAMSUN</v>
       </c>
       <c r="K1341" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87792,19 +87803,19 @@
     </row>
     <row r="1342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1342" s="6" t="s">
-        <v>4359</v>
+        <v>4361</v>
       </c>
       <c r="B1342" s="6" t="s">
-        <v>4360</v>
+        <v>4362</v>
       </c>
       <c r="C1342" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1342" s="6">
-        <v>41.325832699999999</v>
+        <v>41.298675126900001</v>
       </c>
       <c r="E1342" s="6">
-        <v>36.264028600000003</v>
+        <v>36.312275004299998</v>
       </c>
       <c r="G1342" s="7" t="s">
         <v>1031</v>
@@ -87817,7 +87828,7 @@
       </c>
       <c r="J1342" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>İSTİKLAL MAH. 865. SOK. ŞENTÜRK APART. B BLOK NO:12A ATAKUM SAMSUN</v>
+        <v>ÇATALARMUT MAH. 259. SOK NO:2 /1 ILKADIM SAMSUN</v>
       </c>
       <c r="K1342" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87825,7 +87836,7 @@
       </c>
       <c r="L1342" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1342" s="3">
         <v>1</v>
@@ -87842,19 +87853,19 @@
     </row>
     <row r="1343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1343" s="6" t="s">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="B1343" s="6" t="s">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="C1343" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1343" s="6">
-        <v>41.298675126900001</v>
+        <v>41.338784099999998</v>
       </c>
       <c r="E1343" s="6">
-        <v>36.312275004299998</v>
+        <v>36.253408299999997</v>
       </c>
       <c r="G1343" s="7" t="s">
         <v>1031</v>
@@ -87867,7 +87878,7 @@
       </c>
       <c r="J1343" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇATALARMUT MAH. 259. SOK NO:2 /1 ILKADIM SAMSUN</v>
+        <v>YENİ MAH. İSMET İNÖNÜ BULV. NO:22A-B ATAKUM SAMSUN</v>
       </c>
       <c r="K1343" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87875,7 +87886,7 @@
       </c>
       <c r="L1343" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1343" s="3">
         <v>1</v>
@@ -87892,19 +87903,19 @@
     </row>
     <row r="1344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1344" s="6" t="s">
-        <v>4363</v>
+        <v>4365</v>
       </c>
       <c r="B1344" s="6" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="C1344" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1344" s="6">
-        <v>41.338784099999998</v>
+        <v>41.317331027599998</v>
       </c>
       <c r="E1344" s="6">
-        <v>36.253408299999997</v>
+        <v>36.297943656199998</v>
       </c>
       <c r="G1344" s="7" t="s">
         <v>1031</v>
@@ -87917,7 +87928,7 @@
       </c>
       <c r="J1344" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MAH. İSMET İNÖNÜ BULV. NO:22A-B ATAKUM SAMSUN</v>
+        <v>KÜÇÜKKOLPINAR MAH. ALAÇAM CAD. NO:110A-B ATAKUM SAMSUN</v>
       </c>
       <c r="K1344" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87942,19 +87953,19 @@
     </row>
     <row r="1345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1345" s="6" t="s">
-        <v>4365</v>
+        <v>4367</v>
       </c>
       <c r="B1345" s="6" t="s">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="C1345" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1345" s="6">
-        <v>41.317331027599998</v>
+        <v>41.3347306</v>
       </c>
       <c r="E1345" s="6">
-        <v>36.297943656199998</v>
+        <v>36.250092299999999</v>
       </c>
       <c r="G1345" s="7" t="s">
         <v>1031</v>
@@ -87967,7 +87978,7 @@
       </c>
       <c r="J1345" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KÜÇÜKKOLPINAR MAH. ALAÇAM CAD. NO:110A-B ATAKUM SAMSUN</v>
+        <v>YENİ MAHALLE MAH. NECMETTİN ERBAKAN CD. NO:20 ATAKUM SAMSUN</v>
       </c>
       <c r="K1345" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -87992,19 +88003,19 @@
     </row>
     <row r="1346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1346" s="6" t="s">
-        <v>4367</v>
+        <v>4369</v>
       </c>
       <c r="B1346" s="6" t="s">
-        <v>4368</v>
+        <v>4370</v>
       </c>
       <c r="C1346" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1346" s="6">
-        <v>41.3347306</v>
+        <v>41.317179801199998</v>
       </c>
       <c r="E1346" s="6">
-        <v>36.250092299999999</v>
+        <v>36.325197918299999</v>
       </c>
       <c r="G1346" s="7" t="s">
         <v>1031</v>
@@ -88017,7 +88028,7 @@
       </c>
       <c r="J1346" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MAHALLE MAH. NECMETTİN ERBAKAN CD. NO:20 ATAKUM SAMSUN</v>
+        <v>BARUTHANE MAH. ANADOLU SOK. NO:23A-10 23B-11 ILKADIM SAMSUN</v>
       </c>
       <c r="K1346" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88025,7 +88036,7 @@
       </c>
       <c r="L1346" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1346" s="3">
         <v>1</v>
@@ -88042,19 +88053,19 @@
     </row>
     <row r="1347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1347" s="6" t="s">
-        <v>4369</v>
+        <v>4371</v>
       </c>
       <c r="B1347" s="6" t="s">
-        <v>4370</v>
+        <v>4372</v>
       </c>
       <c r="C1347" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1347" s="6">
-        <v>41.317179801199998</v>
+        <v>41.319051093299997</v>
       </c>
       <c r="E1347" s="6">
-        <v>36.325197918299999</v>
+        <v>36.2940694041</v>
       </c>
       <c r="G1347" s="7" t="s">
         <v>1031</v>
@@ -88067,7 +88078,7 @@
       </c>
       <c r="J1347" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>BARUTHANE MAH. ANADOLU SOK. NO:23A-10 23B-11 ILKADIM SAMSUN</v>
+        <v>KÜÇÜKKOLPINAR MAH. 614 SOK. NO:9A ATAKUM SAMSUN</v>
       </c>
       <c r="K1347" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88075,7 +88086,7 @@
       </c>
       <c r="L1347" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1347" s="3">
         <v>1</v>
@@ -88092,19 +88103,19 @@
     </row>
     <row r="1348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1348" s="6" t="s">
-        <v>4371</v>
+        <v>4373</v>
       </c>
       <c r="B1348" s="6" t="s">
-        <v>4372</v>
+        <v>4374</v>
       </c>
       <c r="C1348" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1348" s="6">
-        <v>41.319051093299997</v>
+        <v>41.338848900000002</v>
       </c>
       <c r="E1348" s="6">
-        <v>36.2940694041</v>
+        <v>36.244736199999998</v>
       </c>
       <c r="G1348" s="7" t="s">
         <v>1031</v>
@@ -88117,7 +88128,7 @@
       </c>
       <c r="J1348" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KÜÇÜKKOLPINAR MAH. 614 SOK. NO:9A ATAKUM SAMSUN</v>
+        <v>YENİ MAH. KIBRIS CAD. NO: 20-20A ATAKUM SAMSUN</v>
       </c>
       <c r="K1348" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88142,19 +88153,19 @@
     </row>
     <row r="1349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1349" s="6" t="s">
-        <v>4373</v>
+        <v>4375</v>
       </c>
       <c r="B1349" s="6" t="s">
-        <v>4374</v>
+        <v>4376</v>
       </c>
       <c r="C1349" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1349" s="6">
-        <v>41.338848900000002</v>
+        <v>41.334281648699999</v>
       </c>
       <c r="E1349" s="6">
-        <v>36.244736199999998</v>
+        <v>36.2650846003</v>
       </c>
       <c r="G1349" s="7" t="s">
         <v>1031</v>
@@ -88167,7 +88178,7 @@
       </c>
       <c r="J1349" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİ MAH. KIBRIS CAD. NO: 20-20A ATAKUM SAMSUN</v>
+        <v>CUMHURİYET MAH. LOZAN CAD. NO:26/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1349" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88192,19 +88203,19 @@
     </row>
     <row r="1350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1350" s="6" t="s">
-        <v>4375</v>
+        <v>4377</v>
       </c>
       <c r="B1350" s="6" t="s">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="C1350" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1350" s="6">
-        <v>41.334281648699999</v>
+        <v>41.323297368399999</v>
       </c>
       <c r="E1350" s="6">
-        <v>36.2650846003</v>
+        <v>36.294271638700003</v>
       </c>
       <c r="G1350" s="7" t="s">
         <v>1031</v>
@@ -88217,7 +88228,7 @@
       </c>
       <c r="J1350" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>CUMHURİYET MAH. LOZAN CAD. NO:26/A ATAKUM SAMSUN</v>
+        <v>ESENEVLER MAH. 377. SOK. NO:6  ATAKUM SAMSUN</v>
       </c>
       <c r="K1350" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88242,19 +88253,19 @@
     </row>
     <row r="1351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1351" s="6" t="s">
-        <v>4377</v>
+        <v>4379</v>
       </c>
       <c r="B1351" s="6" t="s">
-        <v>4378</v>
+        <v>4380</v>
       </c>
       <c r="C1351" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1351" s="6">
-        <v>41.323297368399999</v>
+        <v>41.3312977</v>
       </c>
       <c r="E1351" s="6">
-        <v>36.294271638700003</v>
+        <v>36.250663699999997</v>
       </c>
       <c r="G1351" s="7" t="s">
         <v>1031</v>
@@ -88267,7 +88278,7 @@
       </c>
       <c r="J1351" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MAH. 377. SOK. NO:6  ATAKUM SAMSUN</v>
+        <v>YENİMAHALLE MAH AYDINLIK CAD. NO:74/B  ATAKUM SAMSUN</v>
       </c>
       <c r="K1351" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88292,19 +88303,19 @@
     </row>
     <row r="1352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1352" s="6" t="s">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="B1352" s="6" t="s">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="C1352" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1352" s="6">
-        <v>41.3312977</v>
+        <v>41.343615800000002</v>
       </c>
       <c r="E1352" s="6">
-        <v>36.250663699999997</v>
+        <v>36.235426599999997</v>
       </c>
       <c r="G1352" s="7" t="s">
         <v>1031</v>
@@ -88317,7 +88328,7 @@
       </c>
       <c r="J1352" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİMAHALLE MAH AYDINLIK CAD. NO:74/B  ATAKUM SAMSUN</v>
+        <v>ALANLI MAH 3417.CAD. NO:123A ATAKUM SAMSUN</v>
       </c>
       <c r="K1352" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88342,19 +88353,19 @@
     </row>
     <row r="1353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1353" s="6" t="s">
-        <v>4381</v>
+        <v>4383</v>
       </c>
       <c r="B1353" s="6" t="s">
-        <v>4382</v>
+        <v>4384</v>
       </c>
       <c r="C1353" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1353" s="6">
-        <v>41.343615800000002</v>
+        <v>41.329225899999997</v>
       </c>
       <c r="E1353" s="6">
-        <v>36.235426599999997</v>
+        <v>36.2614017</v>
       </c>
       <c r="G1353" s="7" t="s">
         <v>1031</v>
@@ -88367,7 +88378,7 @@
       </c>
       <c r="J1353" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALANLI MAH 3417.CAD. NO:123A ATAKUM SAMSUN</v>
+        <v>İSTİKLAL MAH 894. SOK. NO:26A ATAKUM SAMSUN</v>
       </c>
       <c r="K1353" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88392,19 +88403,19 @@
     </row>
     <row r="1354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1354" s="6" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="B1354" s="6" t="s">
-        <v>4384</v>
+        <v>4386</v>
       </c>
       <c r="C1354" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1354" s="6">
-        <v>41.329225899999997</v>
+        <v>41.334537300000001</v>
       </c>
       <c r="E1354" s="6">
-        <v>36.2614017</v>
+        <v>36.223597699999999</v>
       </c>
       <c r="G1354" s="7" t="s">
         <v>1031</v>
@@ -88417,7 +88428,7 @@
       </c>
       <c r="J1354" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>İSTİKLAL MAH 894. SOK. NO:26A ATAKUM SAMSUN</v>
+        <v>ALANLI MAH 3609 CAD. NO:2BA ATAKUM SAMSUN</v>
       </c>
       <c r="K1354" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88442,19 +88453,19 @@
     </row>
     <row r="1355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1355" s="6" t="s">
-        <v>4385</v>
+        <v>4387</v>
       </c>
       <c r="B1355" s="6" t="s">
-        <v>4386</v>
+        <v>4388</v>
       </c>
       <c r="C1355" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1355" s="6">
-        <v>41.334537300000001</v>
+        <v>41.325451000000001</v>
       </c>
       <c r="E1355" s="6">
-        <v>36.223597699999999</v>
+        <v>36.296000999999997</v>
       </c>
       <c r="G1355" s="7" t="s">
         <v>1031</v>
@@ -88467,7 +88478,7 @@
       </c>
       <c r="J1355" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ALANLI MAH 3609 CAD. NO:2BA ATAKUM SAMSUN</v>
+        <v>ESENEVLER MAH 310. SOK. NO:19/A ATAKUM SAMSUN</v>
       </c>
       <c r="K1355" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88492,19 +88503,19 @@
     </row>
     <row r="1356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1356" s="6" t="s">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="B1356" s="6" t="s">
-        <v>4388</v>
+        <v>4390</v>
       </c>
       <c r="C1356" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1356" s="6">
-        <v>41.325451000000001</v>
+        <v>41.310777000000002</v>
       </c>
       <c r="E1356" s="6">
-        <v>36.296000999999997</v>
+        <v>36.312961999999999</v>
       </c>
       <c r="G1356" s="7" t="s">
         <v>1031</v>
@@ -88517,7 +88528,7 @@
       </c>
       <c r="J1356" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ESENEVLER MAH 310. SOK. NO:19/A ATAKUM SAMSUN</v>
+        <v>KALKANCI MAH ŞEHİT POLİS MEMURU ATAKAN ARSLAN SK NO:90/10 ILKADIM SAMSUN</v>
       </c>
       <c r="K1356" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88525,7 +88536,7 @@
       </c>
       <c r="L1356" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1356" s="3">
         <v>1</v>
@@ -88542,19 +88553,19 @@
     </row>
     <row r="1357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1357" s="6" t="s">
-        <v>4389</v>
+        <v>4391</v>
       </c>
       <c r="B1357" s="6" t="s">
-        <v>4390</v>
+        <v>4392</v>
       </c>
       <c r="C1357" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1357" s="6">
-        <v>41.310777000000002</v>
+        <v>41.347445</v>
       </c>
       <c r="E1357" s="6">
-        <v>36.312961999999999</v>
+        <v>36.235008999999998</v>
       </c>
       <c r="G1357" s="7" t="s">
         <v>1031</v>
@@ -88567,7 +88578,7 @@
       </c>
       <c r="J1357" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KALKANCI MAH ŞEHİT POLİS MEMURU ATAKAN ARSLAN SK NO:90/10 ILKADIM SAMSUN</v>
+        <v>YENİMAHALLE MAH İZMIR CADDESİ NO:16A ATAKUM SAMSUN</v>
       </c>
       <c r="K1357" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88575,7 +88586,7 @@
       </c>
       <c r="L1357" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ATAKUM</v>
       </c>
       <c r="M1357" s="3">
         <v>1</v>
@@ -88592,19 +88603,19 @@
     </row>
     <row r="1358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1358" s="6" t="s">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="B1358" s="6" t="s">
-        <v>4392</v>
+        <v>4394</v>
       </c>
       <c r="C1358" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1358" s="6">
-        <v>41.347445</v>
+        <v>41.305637699999998</v>
       </c>
       <c r="E1358" s="6">
-        <v>36.235008999999998</v>
+        <v>36.277624699999997</v>
       </c>
       <c r="G1358" s="7" t="s">
         <v>1031</v>
@@ -88617,7 +88628,7 @@
       </c>
       <c r="J1358" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>YENİMAHALLE MAH İZMIR CADDESİ NO:16A ATAKUM SAMSUN</v>
+        <v>DERECİK MAH RECEP TAYİP ERDOĞAN BULV. NO:88/BA ILKADIM SAMSUN</v>
       </c>
       <c r="K1358" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88625,7 +88636,7 @@
       </c>
       <c r="L1358" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ATAKUM</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1358" s="3">
         <v>1</v>
@@ -88642,19 +88653,19 @@
     </row>
     <row r="1359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1359" s="6" t="s">
-        <v>4393</v>
+        <v>4395</v>
       </c>
       <c r="B1359" s="6" t="s">
-        <v>4394</v>
+        <v>4396</v>
       </c>
       <c r="C1359" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1359" s="6">
-        <v>41.305637699999998</v>
+        <v>41.267041599999999</v>
       </c>
       <c r="E1359" s="6">
-        <v>36.277624699999997</v>
+        <v>36.315777500000003</v>
       </c>
       <c r="G1359" s="7" t="s">
         <v>1031</v>
@@ -88667,7 +88678,7 @@
       </c>
       <c r="J1359" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>DERECİK MAH RECEP TAYİP ERDOĞAN BULV. NO:88/BA ILKADIM SAMSUN</v>
+        <v>KIŞLA MAH BEYKOZ SOK. NO:15 E-D-C-AB ILKADIM SAMSUN</v>
       </c>
       <c r="K1359" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
@@ -88692,19 +88703,19 @@
     </row>
     <row r="1360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1360" s="6" t="s">
-        <v>4395</v>
+        <v>4397</v>
       </c>
       <c r="B1360" s="6" t="s">
-        <v>4396</v>
+        <v>4398</v>
       </c>
       <c r="C1360" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1360" s="6">
-        <v>41.267041599999999</v>
+        <v>41.121831899999997</v>
       </c>
       <c r="E1360" s="6">
-        <v>36.315777500000003</v>
+        <v>37.2955726</v>
       </c>
       <c r="G1360" s="7" t="s">
         <v>1031</v>
@@ -88717,15 +88728,15 @@
       </c>
       <c r="J1360" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>KIŞLA MAH BEYKOZ SOK. NO:15 E-D-C-AB ILKADIM SAMSUN</v>
+        <v>FEVZİ ÇAKMAK MAH FEVZİ ÇAKMAK CAD. NO:252/A ÜNYE ORDU</v>
       </c>
       <c r="K1360" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
+        <v>ORDU</v>
       </c>
       <c r="L1360" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+        <v>ÜNYE</v>
       </c>
       <c r="M1360" s="3">
         <v>1</v>
@@ -88742,19 +88753,19 @@
     </row>
     <row r="1361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1361" s="6" t="s">
-        <v>4397</v>
+        <v>4399</v>
       </c>
       <c r="B1361" s="6" t="s">
-        <v>4398</v>
+        <v>4400</v>
       </c>
       <c r="C1361" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1361" s="6">
-        <v>41.121831899999997</v>
+        <v>41.286489400000001</v>
       </c>
       <c r="E1361" s="6">
-        <v>37.2955726</v>
+        <v>36.307461099999998</v>
       </c>
       <c r="G1361" s="7" t="s">
         <v>1031</v>
@@ -88767,15 +88778,15 @@
       </c>
       <c r="J1361" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>FEVZİ ÇAKMAK MAH FEVZİ ÇAKMAK CAD. NO:252/A ÜNYE ORDU</v>
+        <v>ÇATALARMUT MAH 182 SK. NO:2 D:10 ILKADIM SAMSUN</v>
       </c>
       <c r="K1361" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>ORDU</v>
+        <v>SAMSUN</v>
       </c>
       <c r="L1361" t="str">
         <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ÜNYE</v>
+        <v>ILKADIM</v>
       </c>
       <c r="M1361" s="3">
         <v>1</v>
@@ -88791,20 +88802,20 @@
       </c>
     </row>
     <row r="1362" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1362" s="6" t="s">
-        <v>4399</v>
-      </c>
-      <c r="B1362" s="6" t="s">
-        <v>4400</v>
+      <c r="A1362" s="2" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B1362" s="2" t="s">
+        <v>4402</v>
       </c>
       <c r="C1362" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1362" s="6">
-        <v>41.286489400000001</v>
-      </c>
-      <c r="E1362" s="6">
-        <v>36.307461099999998</v>
+      <c r="D1362" s="5">
+        <v>41.315935813499998</v>
+      </c>
+      <c r="E1362" s="5">
+        <v>36.267051126799998</v>
       </c>
       <c r="G1362" s="7" t="s">
         <v>1031</v>
@@ -88815,26 +88826,23 @@
       <c r="I1362" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="J1362" t="str">
-        <f>VLOOKUP(A:A,[1]Sayfa1!$G:$K,5,0)</f>
-        <v>ÇATALARMUT MAH 182 SK. NO:2 D:10 ILKADIM SAMSUN</v>
-      </c>
-      <c r="K1362" t="str">
-        <f>VLOOKUP(A:A,[1]Sayfa1!$G:$M,7,0)</f>
-        <v>SAMSUN</v>
-      </c>
-      <c r="L1362" t="str">
-        <f>VLOOKUP(A:A,[1]Sayfa1!$G:$L,6,0)</f>
-        <v>ILKADIM</v>
+      <c r="J1362" s="2" t="s">
+        <v>4407</v>
+      </c>
+      <c r="K1362" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1362" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="M1362" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1362" s="3">
-        <v>1</v>
-      </c>
-      <c r="O1362" s="10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O1362" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="P1362" s="3">
         <v>0</v>
@@ -88842,19 +88850,19 @@
     </row>
     <row r="1363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1363" s="2" t="s">
-        <v>4401</v>
+        <v>4403</v>
       </c>
       <c r="B1363" s="2" t="s">
-        <v>4402</v>
+        <v>4404</v>
       </c>
       <c r="C1363" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1363" s="5">
-        <v>41.315935813499998</v>
+        <v>41.331584999999997</v>
       </c>
       <c r="E1363" s="5">
-        <v>36.267051126799998</v>
+        <v>36.273916700000001</v>
       </c>
       <c r="G1363" s="7" t="s">
         <v>1031</v>
@@ -88866,7 +88874,7 @@
         <v>1031</v>
       </c>
       <c r="J1363" s="2" t="s">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="K1363" s="2" t="s">
         <v>22</v>
@@ -88889,19 +88897,19 @@
     </row>
     <row r="1364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1364" s="2" t="s">
-        <v>4403</v>
+        <v>1496</v>
       </c>
       <c r="B1364" s="2" t="s">
-        <v>4404</v>
+        <v>1497</v>
       </c>
       <c r="C1364" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1364" s="5">
-        <v>41.331584999999997</v>
+        <v>41.565622500000003</v>
       </c>
       <c r="E1364" s="5">
-        <v>36.273916700000001</v>
+        <v>35.888650300000002</v>
       </c>
       <c r="G1364" s="7" t="s">
         <v>1031</v>
@@ -88913,22 +88921,22 @@
         <v>1031</v>
       </c>
       <c r="J1364" s="2" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="K1364" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L1364" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M1364" s="3">
         <v>0</v>
       </c>
       <c r="N1364" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1364" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="P1364" s="3">
         <v>0</v>
@@ -88936,19 +88944,19 @@
     </row>
     <row r="1365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1365" s="2" t="s">
-        <v>1496</v>
+        <v>4405</v>
       </c>
       <c r="B1365" s="2" t="s">
-        <v>1497</v>
+        <v>4406</v>
       </c>
       <c r="C1365" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1365" s="5">
-        <v>41.565622500000003</v>
+        <v>41.257732599999997</v>
       </c>
       <c r="E1365" s="5">
-        <v>35.888650300000002</v>
+        <v>36.319775399999997</v>
       </c>
       <c r="G1365" s="7" t="s">
         <v>1031</v>
@@ -88960,13 +88968,13 @@
         <v>1031</v>
       </c>
       <c r="J1365" s="2" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="K1365" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L1365" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M1365" s="3">
         <v>0</v>
@@ -88975,61 +88983,17 @@
         <v>1</v>
       </c>
       <c r="O1365" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="P1365" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1366" s="2" t="s">
-        <v>4405</v>
-      </c>
-      <c r="B1366" s="2" t="s">
-        <v>4406</v>
-      </c>
-      <c r="C1366" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1366" s="5">
-        <v>41.257732599999997</v>
-      </c>
-      <c r="E1366" s="5">
-        <v>36.319775399999997</v>
-      </c>
-      <c r="G1366" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H1366" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I1366" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J1366" s="2" t="s">
-        <v>4410</v>
-      </c>
-      <c r="K1366" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1366" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1366" s="3">
-        <v>0</v>
-      </c>
-      <c r="N1366" s="3">
-        <v>1</v>
-      </c>
-      <c r="O1366" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1366" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1041"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
